--- a/raw_data/20200818_saline/20200818_Sensor0_Test_38.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_38.xlsx
@@ -1,2442 +1,2858 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7A9EFD-C70C-4A95-96D0-14BE7DE166CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>33302.880457</v>
+        <v>33302.880456999999</v>
       </c>
       <c r="B2" s="1">
-        <v>9.250800</v>
+        <v>9.2507999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>900.577000</v>
+        <v>900.577</v>
       </c>
       <c r="D2" s="1">
-        <v>-184.185000</v>
+        <v>-184.185</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>33312.998840</v>
+        <v>33312.99884</v>
       </c>
       <c r="G2" s="1">
-        <v>9.253611</v>
+        <v>9.2536109999999994</v>
       </c>
       <c r="H2" s="1">
-        <v>917.373000</v>
+        <v>917.37300000000005</v>
       </c>
       <c r="I2" s="1">
-        <v>-157.964000</v>
+        <v>-157.964</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>33323.452489</v>
+        <v>33323.452489000003</v>
       </c>
       <c r="L2" s="1">
-        <v>9.256515</v>
+        <v>9.2565150000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>941.962000</v>
+        <v>941.96199999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.865000</v>
+        <v>-116.86499999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>33333.957259</v>
+        <v>33333.957259000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.259433</v>
+        <v>9.2594329999999996</v>
       </c>
       <c r="R2" s="1">
-        <v>949.658000</v>
+        <v>949.65800000000002</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.825000</v>
+        <v>-102.825</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>33344.852877</v>
+        <v>33344.852876999998</v>
       </c>
       <c r="V2" s="1">
-        <v>9.262459</v>
+        <v>9.2624589999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>957.373000</v>
+        <v>957.37300000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.917500</v>
+        <v>-89.917500000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>33355.235168</v>
+        <v>33355.235167999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.265343</v>
+        <v>9.2653429999999997</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.347000</v>
+        <v>965.34699999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.638100</v>
+        <v>-80.638099999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>33365.766720</v>
+        <v>33365.76672</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.268269</v>
+        <v>9.2682690000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.843000</v>
+        <v>970.84299999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.210300</v>
+        <v>-80.210300000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>33376.184164</v>
+        <v>33376.184163999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.271162</v>
+        <v>9.2711620000000003</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.078000</v>
+        <v>979.07799999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.909400</v>
+        <v>-87.909400000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>33386.725142</v>
+        <v>33386.725142000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.274090</v>
+        <v>9.2740899999999993</v>
       </c>
       <c r="AQ2" s="1">
-        <v>988.375000</v>
+        <v>988.375</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.772000</v>
+        <v>-102.77200000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>33398.086009</v>
+        <v>33398.086008999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.277246</v>
+        <v>9.2772459999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>999.779000</v>
+        <v>999.779</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.240000</v>
+        <v>-124.24</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>33409.226151</v>
+        <v>33409.226151000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>9.280341</v>
       </c>
       <c r="BA2" s="1">
-        <v>1009.420000</v>
+        <v>1009.42</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.971000</v>
+        <v>-142.971</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>33419.945193</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.283318</v>
+        <v>9.2833179999999995</v>
       </c>
       <c r="BF2" s="1">
-        <v>1054.510000</v>
+        <v>1054.51</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.799000</v>
+        <v>-227.79900000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>33430.187580</v>
+        <v>33430.187579999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.286163</v>
+        <v>9.2861630000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1133.440000</v>
+        <v>1133.44</v>
       </c>
       <c r="BL2" s="1">
-        <v>-364.324000</v>
+        <v>-364.32400000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>33440.949774</v>
+        <v>33440.949774000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.289153</v>
+        <v>9.2891530000000007</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.180000</v>
+        <v>1264.18</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.193000</v>
+        <v>-576.19299999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>33452.090415</v>
+        <v>33452.090414999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.292247</v>
+        <v>9.2922469999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.730000</v>
+        <v>1411.73</v>
       </c>
       <c r="BV2" s="1">
-        <v>-802.963000</v>
+        <v>-802.96299999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>33463.110562</v>
+        <v>33463.110562000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.295308</v>
+        <v>9.2953080000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1573.830000</v>
+        <v>1573.83</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1040.550000</v>
+        <v>-1040.55</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>33474.065702</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.298352</v>
+        <v>9.2983519999999995</v>
       </c>
       <c r="CE2" s="1">
-        <v>1986.040000</v>
+        <v>1986.04</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1595.050000</v>
+        <v>-1595.05</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>33303.253940</v>
+        <v>33303.253940000002</v>
       </c>
       <c r="B3" s="1">
-        <v>9.250904</v>
+        <v>9.2509040000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>900.315000</v>
+        <v>900.31500000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-184.534000</v>
+        <v>-184.53399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>33313.343527</v>
+        <v>33313.343526999997</v>
       </c>
       <c r="G3" s="1">
-        <v>9.253707</v>
+        <v>9.2537070000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>917.519000</v>
+        <v>917.51900000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-158.236000</v>
+        <v>-158.23599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>33323.833914</v>
+        <v>33323.833914000003</v>
       </c>
       <c r="L3" s="1">
-        <v>9.256621</v>
+        <v>9.2566210000000009</v>
       </c>
       <c r="M3" s="1">
-        <v>942.087000</v>
+        <v>942.08699999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.724000</v>
+        <v>-116.724</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>33334.691338</v>
+        <v>33334.691337999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.259636</v>
+        <v>9.2596360000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>949.705000</v>
+        <v>949.70500000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.807000</v>
+        <v>-102.807</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>33345.191148</v>
+        <v>33345.191147999998</v>
       </c>
       <c r="V3" s="1">
-        <v>9.262553</v>
+        <v>9.2625530000000005</v>
       </c>
       <c r="W3" s="1">
-        <v>957.358000</v>
+        <v>957.35799999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.946000</v>
+        <v>-89.945999999999998</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>33355.579856</v>
+        <v>33355.579855999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.265439</v>
+        <v>9.2654390000000006</v>
       </c>
       <c r="AB3" s="1">
-        <v>965.528000</v>
+        <v>965.52800000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.697700</v>
+        <v>-80.697699999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>33366.116866</v>
+        <v>33366.116865999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.268366</v>
+        <v>9.2683660000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>970.829000</v>
+        <v>970.82899999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.235900</v>
+        <v>-80.235900000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>33376.882034</v>
+        <v>33376.882034000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.271356</v>
+        <v>9.2713560000000008</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.054000</v>
+        <v>979.05399999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.920600</v>
+        <v>-87.920599999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>33387.428977</v>
+        <v>33387.428977000003</v>
       </c>
       <c r="AP3" s="1">
         <v>9.274286</v>
       </c>
       <c r="AQ3" s="1">
-        <v>988.334000</v>
+        <v>988.33399999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.773000</v>
+        <v>-102.773</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>33398.538887</v>
+        <v>33398.538887000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.277372</v>
+        <v>9.2773719999999997</v>
       </c>
       <c r="AV3" s="1">
-        <v>999.788000</v>
+        <v>999.78800000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.240000</v>
+        <v>-124.24</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>33409.651224</v>
+        <v>33409.651224000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.280459</v>
+        <v>9.2804590000000005</v>
       </c>
       <c r="BA3" s="1">
-        <v>1009.400000</v>
+        <v>1009.4</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.959000</v>
+        <v>-142.959</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>33420.311738</v>
+        <v>33420.311737999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.283420</v>
+        <v>9.2834199999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1054.510000</v>
+        <v>1054.51</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.807000</v>
+        <v>-227.80699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>33430.585867</v>
+        <v>33430.585867000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.286274</v>
+        <v>9.2862740000000006</v>
       </c>
       <c r="BK3" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL3" s="1">
-        <v>-364.369000</v>
+        <v>-364.36900000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>33441.371406</v>
+        <v>33441.371405999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.289270</v>
+        <v>9.2892700000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.220000</v>
+        <v>1264.22</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.237000</v>
+        <v>-576.23699999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>33452.536319</v>
+        <v>33452.536318999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.292371</v>
+        <v>9.2923709999999993</v>
       </c>
       <c r="BU3" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="BV3" s="1">
-        <v>-803.061000</v>
+        <v>-803.06100000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>33463.286112</v>
+        <v>33463.286112000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.295357</v>
+        <v>9.2953569999999992</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1573.940000</v>
+        <v>1573.94</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1040.600000</v>
+        <v>-1040.5999999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>33474.334994</v>
+        <v>33474.334993999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.298426</v>
+        <v>9.2984259999999992</v>
       </c>
       <c r="CE3" s="1">
-        <v>1984.420000</v>
+        <v>1984.42</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1594.700000</v>
+        <v>-1594.7</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>33303.596643</v>
+        <v>33303.596642999997</v>
       </c>
       <c r="B4" s="1">
-        <v>9.250999</v>
+        <v>9.2509990000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>900.452000</v>
+        <v>900.452</v>
       </c>
       <c r="D4" s="1">
-        <v>-184.486000</v>
+        <v>-184.48599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>33314.032002</v>
       </c>
       <c r="G4" s="1">
-        <v>9.253898</v>
+        <v>9.2538979999999995</v>
       </c>
       <c r="H4" s="1">
-        <v>917.327000</v>
+        <v>917.327</v>
       </c>
       <c r="I4" s="1">
-        <v>-158.046000</v>
+        <v>-158.04599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>33324.525337</v>
+        <v>33324.525336999999</v>
       </c>
       <c r="L4" s="1">
-        <v>9.256813</v>
+        <v>9.2568129999999993</v>
       </c>
       <c r="M4" s="1">
-        <v>942.243000</v>
+        <v>942.24300000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-116.863000</v>
+        <v>-116.863</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>33335.040026</v>
+        <v>33335.040026000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.259733</v>
+        <v>9.2597330000000007</v>
       </c>
       <c r="R4" s="1">
-        <v>949.712000</v>
+        <v>949.71199999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.855000</v>
+        <v>-102.855</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>33345.535868</v>
+        <v>33345.535867999999</v>
       </c>
       <c r="V4" s="1">
-        <v>9.262649</v>
+        <v>9.2626489999999997</v>
       </c>
       <c r="W4" s="1">
-        <v>957.224000</v>
+        <v>957.22400000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.918600</v>
+        <v>-89.918599999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>33355.929566</v>
+        <v>33355.929565999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.265536</v>
+        <v>9.2655360000000009</v>
       </c>
       <c r="AB4" s="1">
-        <v>965.484000</v>
+        <v>965.48400000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.689600</v>
+        <v>-80.689599999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>33366.758226</v>
+        <v>33366.758225999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.268544</v>
+        <v>9.2685440000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>970.834000</v>
+        <v>970.83399999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.228700</v>
+        <v>-80.228700000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>33377.238658</v>
+        <v>33377.238658000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.271455</v>
+        <v>9.2714549999999996</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.058000</v>
+        <v>979.05799999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.916300</v>
+        <v>-87.916300000000007</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>33387.845108</v>
+        <v>33387.845108000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.274401</v>
+        <v>9.2744009999999992</v>
       </c>
       <c r="AQ4" s="1">
-        <v>988.370000</v>
+        <v>988.37</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.773000</v>
+        <v>-102.773</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>33398.922759</v>
+        <v>33398.922759000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.277479</v>
+        <v>9.2774789999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>999.793000</v>
+        <v>999.79300000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.237000</v>
+        <v>-124.23699999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>33410.008871</v>
+        <v>33410.008870999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.280558</v>
+        <v>9.2805579999999992</v>
       </c>
       <c r="BA4" s="1">
-        <v>1009.410000</v>
+        <v>1009.41</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.962000</v>
+        <v>-142.96199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>33420.673321</v>
+        <v>33420.673321000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.283520</v>
+        <v>9.2835199999999993</v>
       </c>
       <c r="BF4" s="1">
-        <v>1054.510000</v>
+        <v>1054.51</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.808000</v>
+        <v>-227.80799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>33431.013960</v>
+        <v>33431.013959999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.286393</v>
+        <v>9.2863930000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1133.420000</v>
+        <v>1133.42</v>
       </c>
       <c r="BL4" s="1">
-        <v>-364.322000</v>
+        <v>-364.322</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>33441.791484</v>
+        <v>33441.791484000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.289387</v>
+        <v>9.2893869999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.180000</v>
+        <v>1264.18</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.237000</v>
+        <v>-576.23699999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>33452.973294</v>
+        <v>33452.973294000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.292493</v>
+        <v>9.2924930000000003</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.880000</v>
+        <v>1411.88</v>
       </c>
       <c r="BV4" s="1">
-        <v>-803.133000</v>
+        <v>-803.13300000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>33463.712176</v>
+        <v>33463.712176000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.295476</v>
+        <v>9.2954760000000007</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1573.870000</v>
+        <v>1573.87</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1040.550000</v>
+        <v>-1040.55</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>33474.855794</v>
+        <v>33474.855794000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.298571</v>
+        <v>9.2985710000000008</v>
       </c>
       <c r="CE4" s="1">
-        <v>1984.940000</v>
+        <v>1984.94</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1596.490000</v>
+        <v>-1596.49</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>33304.280132</v>
       </c>
       <c r="B5" s="1">
-        <v>9.251189</v>
+        <v>9.2511890000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>900.308000</v>
+        <v>900.30799999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-184.444000</v>
+        <v>-184.44399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>33314.376693</v>
+        <v>33314.376692999998</v>
       </c>
       <c r="G5" s="1">
-        <v>9.253994</v>
+        <v>9.2539940000000005</v>
       </c>
       <c r="H5" s="1">
-        <v>917.970000</v>
+        <v>917.97</v>
       </c>
       <c r="I5" s="1">
-        <v>-157.799000</v>
+        <v>-157.79900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>33324.871576</v>
+        <v>33324.871575999998</v>
       </c>
       <c r="L5" s="1">
-        <v>9.256909</v>
+        <v>9.2569090000000003</v>
       </c>
       <c r="M5" s="1">
-        <v>942.124000</v>
+        <v>942.12400000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.052000</v>
+        <v>-117.05200000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>33335.386233</v>
+        <v>33335.386232999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.259830</v>
+        <v>9.2598299999999991</v>
       </c>
       <c r="R5" s="1">
-        <v>949.704000</v>
+        <v>949.70399999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.873000</v>
+        <v>-102.873</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>33346.187147</v>
+        <v>33346.187146999997</v>
       </c>
       <c r="V5" s="1">
-        <v>9.262830</v>
+        <v>9.2628299999999992</v>
       </c>
       <c r="W5" s="1">
-        <v>957.266000</v>
+        <v>957.26599999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.873300</v>
+        <v>-89.8733</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>33356.586237</v>
+        <v>33356.586237000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.265718</v>
+        <v>9.2657179999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>965.584000</v>
+        <v>965.58399999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.629900</v>
+        <v>-80.629900000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>33367.143585</v>
+        <v>33367.143584999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.268651</v>
+        <v>9.2686510000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>970.881000</v>
+        <v>970.88099999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.230500</v>
+        <v>-80.230500000000006</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>33377.584404</v>
+        <v>33377.584404000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.271551</v>
+        <v>9.2715510000000005</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.054000</v>
+        <v>979.05399999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.913200</v>
+        <v>-87.913200000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>33388.230996</v>
+        <v>33388.230995999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.274509</v>
+        <v>9.2745090000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>988.357000</v>
+        <v>988.35699999999997</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.766000</v>
+        <v>-102.76600000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>33399.285829</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.277579</v>
+        <v>9.2775789999999994</v>
       </c>
       <c r="AV5" s="1">
-        <v>999.799000</v>
+        <v>999.79899999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.234000</v>
+        <v>-124.23399999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>33410.423990</v>
+        <v>33410.423990000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.280673</v>
+        <v>9.2806730000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1009.410000</v>
+        <v>1009.41</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.957000</v>
+        <v>-142.95699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>33421.093930</v>
+        <v>33421.093930000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.283637</v>
+        <v>9.2836370000000006</v>
       </c>
       <c r="BF5" s="1">
-        <v>1054.500000</v>
+        <v>1054.5</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.806000</v>
+        <v>-227.80600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>33431.338795</v>
+        <v>33431.338795000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.286483</v>
+        <v>9.2864830000000005</v>
       </c>
       <c r="BK5" s="1">
-        <v>1133.440000</v>
+        <v>1133.44</v>
       </c>
       <c r="BL5" s="1">
-        <v>-364.362000</v>
+        <v>-364.36200000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>33442.192252</v>
+        <v>33442.192252000001</v>
       </c>
       <c r="BO5" s="1">
         <v>9.289498</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.170000</v>
+        <v>1264.17</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.204000</v>
+        <v>-576.20399999999995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>33453.402333</v>
+        <v>33453.402332999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.292612</v>
+        <v>9.2926120000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1411.980000</v>
+        <v>1411.98</v>
       </c>
       <c r="BV5" s="1">
-        <v>-803.362000</v>
+        <v>-803.36199999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>33464.130799</v>
+        <v>33464.130798999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.295592</v>
+        <v>9.2955919999999992</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1574.020000</v>
+        <v>1574.02</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1040.620000</v>
+        <v>-1040.6199999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>33475.394449</v>
+        <v>33475.394448999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.298721</v>
+        <v>9.2987210000000005</v>
       </c>
       <c r="CE5" s="1">
-        <v>1986.170000</v>
+        <v>1986.17</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1594.740000</v>
+        <v>-1594.74</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>33304.620883</v>
+        <v>33304.620883000003</v>
       </c>
       <c r="B6" s="1">
-        <v>9.251284</v>
+        <v>9.2512840000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>900.251000</v>
+        <v>900.25099999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-184.176000</v>
+        <v>-184.17599999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>33314.727365</v>
+        <v>33314.727364999999</v>
       </c>
       <c r="G6" s="1">
-        <v>9.254091</v>
+        <v>9.2540910000000007</v>
       </c>
       <c r="H6" s="1">
-        <v>917.476000</v>
+        <v>917.476</v>
       </c>
       <c r="I6" s="1">
-        <v>-157.677000</v>
+        <v>-157.67699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>33325.217255</v>
+        <v>33325.217255000003</v>
       </c>
       <c r="L6" s="1">
-        <v>9.257005</v>
+        <v>9.2570049999999995</v>
       </c>
       <c r="M6" s="1">
-        <v>941.987000</v>
+        <v>941.98699999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-116.988000</v>
+        <v>-116.988</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>33336.052857</v>
+        <v>33336.052857000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.260015</v>
+        <v>9.2600149999999992</v>
       </c>
       <c r="R6" s="1">
-        <v>949.656000</v>
+        <v>949.65599999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.899000</v>
+        <v>-102.899</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>33346.570028</v>
+        <v>33346.570028000002</v>
       </c>
       <c r="V6" s="1">
-        <v>9.262936</v>
+        <v>9.2629359999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>957.333000</v>
+        <v>957.33299999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.880500</v>
+        <v>-89.880499999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>33356.975629</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.265827</v>
+        <v>9.2658269999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.519000</v>
+        <v>965.51900000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.659900</v>
+        <v>-80.659899999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>33367.493264</v>
+        <v>33367.493263999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.268748</v>
+        <v>9.2687480000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.865000</v>
+        <v>970.86500000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.229300</v>
+        <v>-80.229299999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>33377.935538</v>
+        <v>33377.935537999998</v>
       </c>
       <c r="AK6" s="1">
         <v>9.271649</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.060000</v>
+        <v>979.06</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.910500</v>
+        <v>-87.910499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>33388.613412</v>
+        <v>33388.613411999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.274615</v>
+        <v>9.2746150000000007</v>
       </c>
       <c r="AQ6" s="1">
-        <v>988.367000</v>
+        <v>988.36699999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.757000</v>
+        <v>-102.75700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>33399.703496</v>
+        <v>33399.703496000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.277695</v>
+        <v>9.2776949999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>999.787000</v>
+        <v>999.78700000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.237000</v>
+        <v>-124.23699999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>33410.726056</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.280757</v>
+        <v>9.2807569999999995</v>
       </c>
       <c r="BA6" s="1">
-        <v>1009.430000</v>
+        <v>1009.43</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.975000</v>
+        <v>-142.97499999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>33421.394536</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.283721</v>
+        <v>9.2837209999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1054.510000</v>
+        <v>1054.51</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.805000</v>
+        <v>-227.80500000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>33431.711820</v>
+        <v>33431.711819999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.286587</v>
+        <v>9.2865870000000008</v>
       </c>
       <c r="BK6" s="1">
-        <v>1133.440000</v>
+        <v>1133.44</v>
       </c>
       <c r="BL6" s="1">
-        <v>-364.341000</v>
+        <v>-364.34100000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>33442.608397</v>
+        <v>33442.608397000004</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.289613</v>
+        <v>9.2896129999999992</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.200000</v>
+        <v>1264.2</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.199000</v>
+        <v>-576.19899999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>33453.813021</v>
+        <v>33453.813021000002</v>
       </c>
       <c r="BT6" s="1">
         <v>9.292726</v>
       </c>
       <c r="BU6" s="1">
-        <v>1411.910000</v>
+        <v>1411.91</v>
       </c>
       <c r="BV6" s="1">
-        <v>-803.383000</v>
+        <v>-803.38300000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>33464.579680</v>
+        <v>33464.579680000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.295717</v>
+        <v>9.2957169999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1573.810000</v>
+        <v>1573.81</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1040.640000</v>
+        <v>-1040.6400000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>33475.937569</v>
+        <v>33475.937569000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.298872</v>
+        <v>9.2988719999999994</v>
       </c>
       <c r="CE6" s="1">
-        <v>1983.780000</v>
+        <v>1983.78</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1595.650000</v>
+        <v>-1595.65</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>33304.961139</v>
+        <v>33304.961138999999</v>
       </c>
       <c r="B7" s="1">
-        <v>9.251378</v>
+        <v>9.2513780000000008</v>
       </c>
       <c r="C7" s="1">
-        <v>900.055000</v>
+        <v>900.05499999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-184.310000</v>
+        <v>-184.31</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>33315.383573</v>
+        <v>33315.383572999999</v>
       </c>
       <c r="G7" s="1">
-        <v>9.254273</v>
+        <v>9.2542729999999995</v>
       </c>
       <c r="H7" s="1">
-        <v>917.611000</v>
+        <v>917.61099999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-158.162000</v>
+        <v>-158.16200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>33325.879910</v>
+        <v>33325.879910000003</v>
       </c>
       <c r="L7" s="1">
-        <v>9.257189</v>
+        <v>9.2571890000000003</v>
       </c>
       <c r="M7" s="1">
-        <v>941.955000</v>
+        <v>941.95500000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.952000</v>
+        <v>-116.952</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>33336.432793</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.260120</v>
+        <v>9.2601200000000006</v>
       </c>
       <c r="R7" s="1">
-        <v>949.659000</v>
+        <v>949.65899999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.863000</v>
+        <v>-102.863</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>33346.920202</v>
+        <v>33346.920202000001</v>
       </c>
       <c r="V7" s="1">
-        <v>9.263033</v>
+        <v>9.2630330000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>957.356000</v>
+        <v>957.35599999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.873500</v>
+        <v>-89.873500000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>33357.321344</v>
+        <v>33357.321344000004</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.265923</v>
+        <v>9.2659230000000008</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.454000</v>
+        <v>965.45399999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.662600</v>
+        <v>-80.662599999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>33367.835503</v>
+        <v>33367.835503000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.268843</v>
+        <v>9.2688430000000004</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.885000</v>
+        <v>970.88499999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.218700</v>
+        <v>-80.218699999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>33378.371521</v>
+        <v>33378.371521000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.271770</v>
+        <v>9.2717700000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.069000</v>
+        <v>979.06899999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.908000</v>
+        <v>-87.908000000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>33389.024320</v>
+        <v>33389.024319999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.274729</v>
+        <v>9.2747290000000007</v>
       </c>
       <c r="AQ7" s="1">
-        <v>988.354000</v>
+        <v>988.35400000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.771000</v>
+        <v>-102.771</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>33400.017429</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.277783</v>
+        <v>9.2777829999999994</v>
       </c>
       <c r="AV7" s="1">
-        <v>999.787000</v>
+        <v>999.78700000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.254000</v>
+        <v>-124.254</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>33411.087142</v>
+        <v>33411.087141999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.280858</v>
+        <v>9.2808580000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>1009.420000</v>
+        <v>1009.42</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.933000</v>
+        <v>-142.93299999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>33421.755629</v>
+        <v>33421.755628999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.283821</v>
+        <v>9.2838209999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1054.500000</v>
+        <v>1054.5</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.836000</v>
+        <v>-227.83600000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>33432.114078</v>
+        <v>33432.114077999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.286698</v>
+        <v>9.2866979999999995</v>
       </c>
       <c r="BK7" s="1">
-        <v>1133.430000</v>
+        <v>1133.43</v>
       </c>
       <c r="BL7" s="1">
-        <v>-364.332000</v>
+        <v>-364.33199999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>33443.007676</v>
+        <v>33443.007676000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.289724</v>
+        <v>9.2897239999999996</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.210000</v>
+        <v>1264.21</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.230000</v>
+        <v>-576.23</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>33454.242062</v>
+        <v>33454.242061999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.292845</v>
+        <v>9.2928449999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1411.900000</v>
+        <v>1411.9</v>
       </c>
       <c r="BV7" s="1">
-        <v>-803.477000</v>
+        <v>-803.47699999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>33464.997838</v>
+        <v>33464.997838000003</v>
       </c>
       <c r="BY7" s="1">
         <v>9.295833</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1573.910000</v>
+        <v>1573.91</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1040.700000</v>
+        <v>-1040.7</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>33476.473777</v>
+        <v>33476.473776999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.299020</v>
+        <v>9.2990200000000005</v>
       </c>
       <c r="CE7" s="1">
-        <v>1985.860000</v>
+        <v>1985.86</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1596.370000</v>
+        <v>-1596.37</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>33305.615242</v>
       </c>
       <c r="B8" s="1">
-        <v>9.251560</v>
+        <v>9.2515599999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>899.971000</v>
+        <v>899.971</v>
       </c>
       <c r="D8" s="1">
-        <v>-183.591000</v>
+        <v>-183.59100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>33315.762516</v>
+        <v>33315.762516000003</v>
       </c>
       <c r="G8" s="1">
-        <v>9.254378</v>
+        <v>9.2543780000000009</v>
       </c>
       <c r="H8" s="1">
-        <v>917.274000</v>
+        <v>917.274</v>
       </c>
       <c r="I8" s="1">
-        <v>-158.320000</v>
+        <v>-158.32</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>33326.253398</v>
+        <v>33326.253398000001</v>
       </c>
       <c r="L8" s="1">
-        <v>9.257293</v>
+        <v>9.2572930000000007</v>
       </c>
       <c r="M8" s="1">
-        <v>942.103000</v>
+        <v>942.10299999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.673000</v>
+        <v>-116.673</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>33336.782968</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.260217</v>
+        <v>9.2602170000000008</v>
       </c>
       <c r="R8" s="1">
-        <v>949.672000</v>
+        <v>949.67200000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.814000</v>
+        <v>-102.81399999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>33347.261451</v>
+        <v>33347.261450999998</v>
       </c>
       <c r="V8" s="1">
         <v>9.263128</v>
       </c>
       <c r="W8" s="1">
-        <v>957.267000</v>
+        <v>957.26700000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.893300</v>
+        <v>-89.893299999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>33357.672010</v>
+        <v>33357.672010000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.266020</v>
+        <v>9.2660199999999993</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.533000</v>
+        <v>965.53300000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.680500</v>
+        <v>-80.680499999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>33368.252645</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.268959</v>
+        <v>9.2689590000000006</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.847000</v>
+        <v>970.84699999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.233200</v>
+        <v>-80.233199999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>33378.632914</v>
+        <v>33378.632914000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.271842</v>
+        <v>9.2718419999999995</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.064000</v>
+        <v>979.06399999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.940300</v>
+        <v>-87.940299999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>33389.331618</v>
+        <v>33389.331617999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.274814</v>
+        <v>9.2748139999999992</v>
       </c>
       <c r="AQ8" s="1">
-        <v>988.385000</v>
+        <v>988.38499999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.763000</v>
+        <v>-102.76300000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>33400.378019</v>
+        <v>33400.378019000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.277883</v>
+        <v>9.2778829999999992</v>
       </c>
       <c r="AV8" s="1">
-        <v>999.797000</v>
+        <v>999.79700000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.229000</v>
+        <v>-124.229</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>33411.445252</v>
+        <v>33411.445251999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.280957</v>
+        <v>9.2809570000000008</v>
       </c>
       <c r="BA8" s="1">
-        <v>1009.440000</v>
+        <v>1009.44</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.973000</v>
+        <v>-142.97300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>33422.117703</v>
+        <v>33422.117703000004</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.283922</v>
+        <v>9.2839220000000005</v>
       </c>
       <c r="BF8" s="1">
-        <v>1054.490000</v>
+        <v>1054.49</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.802000</v>
+        <v>-227.80199999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>33432.861547</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.286906</v>
+        <v>9.2869060000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1133.440000</v>
+        <v>1133.44</v>
       </c>
       <c r="BL8" s="1">
-        <v>-364.353000</v>
+        <v>-364.35300000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>33443.824127</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.289951</v>
+        <v>9.2899510000000003</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.250000</v>
+        <v>1264.25</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.223000</v>
+        <v>-576.22299999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>33454.670107</v>
+        <v>33454.670106999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.292964</v>
+        <v>9.2929639999999996</v>
       </c>
       <c r="BU8" s="1">
-        <v>1411.930000</v>
+        <v>1411.93</v>
       </c>
       <c r="BV8" s="1">
-        <v>-803.605000</v>
+        <v>-803.60500000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>33465.423375</v>
+        <v>33465.423374999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.295951</v>
+        <v>9.2959510000000005</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1573.890000</v>
+        <v>1573.89</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1040.590000</v>
+        <v>-1040.5899999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>33477.018351</v>
+        <v>33477.018350999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.299172</v>
+        <v>9.2991720000000004</v>
       </c>
       <c r="CE8" s="1">
-        <v>1985.230000</v>
+        <v>1985.23</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1594.440000</v>
+        <v>-1594.44</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>33305.986368</v>
+        <v>33305.986367999998</v>
       </c>
       <c r="B9" s="1">
-        <v>9.251663</v>
+        <v>9.2516630000000006</v>
       </c>
       <c r="C9" s="1">
-        <v>900.472000</v>
+        <v>900.47199999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-183.116000</v>
+        <v>-183.11600000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>33316.105284</v>
+        <v>33316.105283999997</v>
       </c>
       <c r="G9" s="1">
-        <v>9.254474</v>
+        <v>9.2544740000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>917.607000</v>
+        <v>917.60699999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-158.199000</v>
+        <v>-158.19900000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>33326.597621</v>
+        <v>33326.597621000001</v>
       </c>
       <c r="L9" s="1">
-        <v>9.257388</v>
+        <v>9.2573880000000006</v>
       </c>
       <c r="M9" s="1">
-        <v>942.007000</v>
+        <v>942.00699999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.989000</v>
+        <v>-116.989</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>33337.131159</v>
+        <v>33337.131158999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.260314</v>
+        <v>9.2603139999999993</v>
       </c>
       <c r="R9" s="1">
-        <v>949.683000</v>
+        <v>949.68299999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.836000</v>
+        <v>-102.836</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>33347.680074</v>
+        <v>33347.680074000004</v>
       </c>
       <c r="V9" s="1">
-        <v>9.263244</v>
+        <v>9.2632440000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>957.331000</v>
+        <v>957.33100000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.899600</v>
+        <v>-89.899600000000007</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>33358.094604</v>
+        <v>33358.094603999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.266137</v>
+        <v>9.2661370000000005</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.492000</v>
+        <v>965.49199999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.669400</v>
+        <v>-80.669399999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>33368.533870</v>
+        <v>33368.533869999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.269037</v>
+        <v>9.2690370000000009</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.843000</v>
+        <v>970.84299999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.219100</v>
+        <v>-80.219099999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>33378.980113</v>
+        <v>33378.980112999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.271939</v>
+        <v>9.2719389999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.054000</v>
+        <v>979.05399999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.897000</v>
+        <v>-87.897000000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>33389.692210</v>
+        <v>33389.692210000001</v>
       </c>
       <c r="AP9" s="1">
         <v>9.274915</v>
       </c>
       <c r="AQ9" s="1">
-        <v>988.380000</v>
+        <v>988.38</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.766000</v>
+        <v>-102.76600000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>33400.743571</v>
+        <v>33400.743570999999</v>
       </c>
       <c r="AU9" s="1">
         <v>9.277984</v>
       </c>
       <c r="AV9" s="1">
-        <v>999.778000</v>
+        <v>999.77800000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.249000</v>
+        <v>-124.249</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>33412.163460</v>
+        <v>33412.163460000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.281157</v>
+        <v>9.2811570000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1009.420000</v>
+        <v>1009.42</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.945000</v>
+        <v>-142.94499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>33422.837948</v>
@@ -2445,4155 +2861,4155 @@
         <v>9.284122</v>
       </c>
       <c r="BF9" s="1">
-        <v>1054.500000</v>
+        <v>1054.5</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.800000</v>
+        <v>-227.8</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>33433.268265</v>
+        <v>33433.268264999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.287019</v>
+        <v>9.2870190000000008</v>
       </c>
       <c r="BK9" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL9" s="1">
-        <v>-364.367000</v>
+        <v>-364.36700000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>33444.223897</v>
+        <v>33444.223897000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.290062</v>
+        <v>9.2900620000000007</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.220000</v>
+        <v>1264.22</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.258000</v>
+        <v>-576.25800000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>33455.083277</v>
+        <v>33455.083276999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.293079</v>
+        <v>9.2930790000000005</v>
       </c>
       <c r="BU9" s="1">
-        <v>1411.850000</v>
+        <v>1411.85</v>
       </c>
       <c r="BV9" s="1">
-        <v>-803.667000</v>
+        <v>-803.66700000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>33466.179774</v>
+        <v>33466.179773999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.296161</v>
+        <v>9.2961609999999997</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1573.820000</v>
+        <v>1573.82</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1040.580000</v>
+        <v>-1040.58</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>33477.555056</v>
+        <v>33477.555055999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.299321</v>
+        <v>9.2993210000000008</v>
       </c>
       <c r="CE9" s="1">
-        <v>1984.580000</v>
+        <v>1984.58</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1596.270000</v>
+        <v>-1596.27</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>33306.329600</v>
+        <v>33306.329599999997</v>
       </c>
       <c r="B10" s="1">
-        <v>9.251758</v>
+        <v>9.2517580000000006</v>
       </c>
       <c r="C10" s="1">
-        <v>900.547000</v>
+        <v>900.54700000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-183.055000</v>
+        <v>-183.05500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>33316.452466</v>
+        <v>33316.452466000002</v>
       </c>
       <c r="G10" s="1">
-        <v>9.254570</v>
+        <v>9.2545699999999993</v>
       </c>
       <c r="H10" s="1">
-        <v>917.606000</v>
+        <v>917.60599999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-158.399000</v>
+        <v>-158.399</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>33327.020214</v>
+        <v>33327.020213999996</v>
       </c>
       <c r="L10" s="1">
-        <v>9.257506</v>
+        <v>9.2575059999999993</v>
       </c>
       <c r="M10" s="1">
-        <v>941.989000</v>
+        <v>941.98900000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-116.971000</v>
+        <v>-116.971</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>33337.554280</v>
+        <v>33337.554279999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.260432</v>
+        <v>9.2604319999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>949.689000</v>
+        <v>949.68899999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.832000</v>
+        <v>-102.83199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>33347.959848</v>
+        <v>33347.959847999999</v>
       </c>
       <c r="V10" s="1">
-        <v>9.263322</v>
+        <v>9.2633220000000005</v>
       </c>
       <c r="W10" s="1">
-        <v>957.214000</v>
+        <v>957.21400000000006</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.867000</v>
+        <v>-89.867000000000004</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>33358.366913</v>
+        <v>33358.366912999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.266213</v>
+        <v>9.2662130000000005</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.480000</v>
+        <v>965.48</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.609500</v>
+        <v>-80.609499999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>33368.877133</v>
+        <v>33368.877133000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.269133</v>
+        <v>9.2691330000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.870000</v>
+        <v>970.87</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.229100</v>
+        <v>-80.229100000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>33379.329295</v>
+        <v>33379.329295000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.272036</v>
+        <v>9.2720359999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.050000</v>
+        <v>979.05</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.912100</v>
+        <v>-87.912099999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>33390.054291</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.275015</v>
+        <v>9.2750149999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>988.367000</v>
+        <v>988.36699999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.767000</v>
+        <v>-102.767</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>33401.474211</v>
+        <v>33401.474211000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.278187</v>
+        <v>9.2781870000000009</v>
       </c>
       <c r="AV10" s="1">
-        <v>999.792000</v>
+        <v>999.79200000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.251000</v>
+        <v>-124.251</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>33412.523091</v>
+        <v>33412.523091000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.281256</v>
+        <v>9.2812560000000008</v>
       </c>
       <c r="BA10" s="1">
-        <v>1009.410000</v>
+        <v>1009.41</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.957000</v>
+        <v>-142.95699999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>33423.202454</v>
+        <v>33423.202453999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.284223</v>
+        <v>9.2842230000000008</v>
       </c>
       <c r="BF10" s="1">
-        <v>1054.500000</v>
+        <v>1054.5</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.824000</v>
+        <v>-227.82400000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>33433.643237</v>
+        <v>33433.643236999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.287123</v>
+        <v>9.2871229999999994</v>
       </c>
       <c r="BK10" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL10" s="1">
-        <v>-364.350000</v>
+        <v>-364.35</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>33444.942601</v>
+        <v>33444.942601000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.290262</v>
+        <v>9.2902620000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.240000</v>
+        <v>1264.24</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.266000</v>
+        <v>-576.26599999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>33455.830779</v>
+        <v>33455.830779000004</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.293286</v>
+        <v>9.2932860000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1411.700000</v>
+        <v>1411.7</v>
       </c>
       <c r="BV10" s="1">
-        <v>-803.775000</v>
+        <v>-803.77499999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>33466.300797</v>
+        <v>33466.300797000004</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.296195</v>
+        <v>9.2961950000000009</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1573.860000</v>
+        <v>1573.86</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1040.680000</v>
+        <v>-1040.68</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>33478.093213</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.299470</v>
+        <v>9.2994699999999995</v>
       </c>
       <c r="CE10" s="1">
-        <v>1986.220000</v>
+        <v>1986.22</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1595.310000</v>
+        <v>-1595.31</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>33306.671343</v>
+        <v>33306.671343000002</v>
       </c>
       <c r="B11" s="1">
-        <v>9.251853</v>
+        <v>9.2518530000000005</v>
       </c>
       <c r="C11" s="1">
-        <v>900.674000</v>
+        <v>900.67399999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-183.104000</v>
+        <v>-183.10400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>33316.872099</v>
       </c>
       <c r="G11" s="1">
-        <v>9.254687</v>
+        <v>9.2546870000000006</v>
       </c>
       <c r="H11" s="1">
-        <v>917.225000</v>
+        <v>917.22500000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-158.155000</v>
+        <v>-158.155</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>33327.291525</v>
+        <v>33327.291525000001</v>
       </c>
       <c r="L11" s="1">
-        <v>9.257581</v>
+        <v>9.2575810000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>941.999000</v>
+        <v>941.99900000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.227000</v>
+        <v>-117.227</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>33337.831542</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.260509</v>
+        <v>9.2605090000000008</v>
       </c>
       <c r="R11" s="1">
-        <v>949.660000</v>
+        <v>949.66</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.873000</v>
+        <v>-102.873</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>33348.302552</v>
+        <v>33348.302552000001</v>
       </c>
       <c r="V11" s="1">
-        <v>9.263417</v>
+        <v>9.2634170000000005</v>
       </c>
       <c r="W11" s="1">
-        <v>957.252000</v>
+        <v>957.25199999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.905000</v>
+        <v>-89.905000000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>33358.720522</v>
+        <v>33358.720522000003</v>
       </c>
       <c r="AA11" s="1">
         <v>9.266311</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.486000</v>
+        <v>965.48599999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.662300</v>
+        <v>-80.662300000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>33369.221853</v>
+        <v>33369.221853000003</v>
       </c>
       <c r="AF11" s="1">
         <v>9.269228</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.843000</v>
+        <v>970.84299999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.223500</v>
+        <v>-80.223500000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>33380.025182</v>
+        <v>33380.025181999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.272229</v>
+        <v>9.2722289999999994</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.059000</v>
+        <v>979.05899999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.924900</v>
+        <v>-87.924899999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>33390.773489</v>
+        <v>33390.773488999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.275215</v>
+        <v>9.2752149999999993</v>
       </c>
       <c r="AQ11" s="1">
-        <v>988.370000</v>
+        <v>988.37</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.765000</v>
+        <v>-102.765</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>33401.866050</v>
+        <v>33401.866049999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.278296</v>
+        <v>9.2782959999999992</v>
       </c>
       <c r="AV11" s="1">
-        <v>999.801000</v>
+        <v>999.80100000000004</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.228000</v>
+        <v>-124.22799999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>33412.879684</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.281355</v>
+        <v>9.2813549999999996</v>
       </c>
       <c r="BA11" s="1">
-        <v>1009.380000</v>
+        <v>1009.38</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.955000</v>
+        <v>-142.95500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>33423.561556</v>
+        <v>33423.561556000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.284323</v>
+        <v>9.2843230000000005</v>
       </c>
       <c r="BF11" s="1">
-        <v>1054.540000</v>
+        <v>1054.54</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.817000</v>
+        <v>-227.81700000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>33434.332150</v>
+        <v>33434.332150000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.287314</v>
+        <v>9.2873140000000003</v>
       </c>
       <c r="BK11" s="1">
-        <v>1133.430000</v>
+        <v>1133.43</v>
       </c>
       <c r="BL11" s="1">
-        <v>-364.363000</v>
+        <v>-364.363</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>33445.452693</v>
+        <v>33445.452692999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.290404</v>
+        <v>9.2904040000000006</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.180000</v>
+        <v>1264.18</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.225000</v>
+        <v>-576.22500000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>33455.942842</v>
+        <v>33455.942841999997</v>
       </c>
       <c r="BT11" s="1">
         <v>9.293317</v>
       </c>
       <c r="BU11" s="1">
-        <v>1411.570000</v>
+        <v>1411.57</v>
       </c>
       <c r="BV11" s="1">
-        <v>-803.771000</v>
+        <v>-803.77099999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>33466.740747</v>
+        <v>33466.740747000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.296317</v>
+        <v>9.2963170000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1573.960000</v>
+        <v>1573.96</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1040.540000</v>
+        <v>-1040.54</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>33478.634812</v>
+        <v>33478.634811999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.299621</v>
+        <v>9.2996210000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1984.000000</v>
+        <v>1984</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1595.670000</v>
+        <v>-1595.67</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>33307.093472</v>
       </c>
       <c r="B12" s="1">
-        <v>9.251970</v>
+        <v>9.25197</v>
       </c>
       <c r="C12" s="1">
-        <v>900.529000</v>
+        <v>900.529</v>
       </c>
       <c r="D12" s="1">
-        <v>-182.902000</v>
+        <v>-182.90199999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>33317.164093</v>
+        <v>33317.164092999999</v>
       </c>
       <c r="G12" s="1">
-        <v>9.254768</v>
+        <v>9.2547680000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>917.916000</v>
+        <v>917.91600000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-158.003000</v>
+        <v>-158.00299999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>33327.634260</v>
+        <v>33327.634259999999</v>
       </c>
       <c r="L12" s="1">
         <v>9.257676</v>
       </c>
       <c r="M12" s="1">
-        <v>942.109000</v>
+        <v>942.10900000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.778000</v>
+        <v>-116.77800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>33338.179701</v>
+        <v>33338.179701000001</v>
       </c>
       <c r="Q12" s="1">
         <v>9.260605</v>
       </c>
       <c r="R12" s="1">
-        <v>949.663000</v>
+        <v>949.66300000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.832000</v>
+        <v>-102.83199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>33348.646279</v>
+        <v>33348.646279000001</v>
       </c>
       <c r="V12" s="1">
-        <v>9.263513</v>
+        <v>9.2635129999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>957.383000</v>
+        <v>957.38300000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.896100</v>
+        <v>-89.896100000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>33359.070204</v>
+        <v>33359.070204000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.266408</v>
+        <v>9.2664080000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>965.540000</v>
+        <v>965.54</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.624100</v>
+        <v>-80.624099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>33369.904844</v>
+        <v>33369.904843999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.269418</v>
+        <v>9.2694179999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.854000</v>
+        <v>970.85400000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.219500</v>
+        <v>-80.219499999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>33380.375360</v>
+        <v>33380.375359999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.272326</v>
+        <v>9.2723259999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.063000</v>
+        <v>979.06299999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.922100</v>
+        <v>-87.9221</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>33391.132627</v>
+        <v>33391.132626999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.275315</v>
+        <v>9.2753150000000009</v>
       </c>
       <c r="AQ12" s="1">
-        <v>988.383000</v>
+        <v>988.38300000000004</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.765000</v>
+        <v>-102.765</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>33402.228097</v>
+        <v>33402.228096999999</v>
       </c>
       <c r="AU12" s="1">
         <v>9.278397</v>
       </c>
       <c r="AV12" s="1">
-        <v>999.791000</v>
+        <v>999.79100000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.232000</v>
+        <v>-124.232</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>33413.545842</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.281541</v>
+        <v>9.2815410000000007</v>
       </c>
       <c r="BA12" s="1">
-        <v>1009.420000</v>
+        <v>1009.42</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.978000</v>
+        <v>-142.97800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>33424.228643</v>
+        <v>33424.228643000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.284508</v>
+        <v>9.2845080000000006</v>
       </c>
       <c r="BF12" s="1">
-        <v>1054.510000</v>
+        <v>1054.51</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.833000</v>
+        <v>-227.833</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>33434.800907</v>
+        <v>33434.800906999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>9.287445</v>
       </c>
       <c r="BK12" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL12" s="1">
-        <v>-364.343000</v>
+        <v>-364.34300000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>33445.873064</v>
+        <v>33445.873063999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.290520</v>
+        <v>9.2905200000000008</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.180000</v>
+        <v>1264.18</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.249000</v>
+        <v>-576.24900000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>33456.379354</v>
+        <v>33456.379353999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.293439</v>
+        <v>9.2934389999999993</v>
       </c>
       <c r="BU12" s="1">
-        <v>1411.440000</v>
+        <v>1411.44</v>
       </c>
       <c r="BV12" s="1">
-        <v>-803.739000</v>
+        <v>-803.73900000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>33467.165325</v>
+        <v>33467.165325000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.296435</v>
+        <v>9.2964350000000007</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1573.670000</v>
+        <v>1573.67</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1040.650000</v>
+        <v>-1040.6500000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>33479.173963</v>
+        <v>33479.173963000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.299771</v>
+        <v>9.2997709999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1985.960000</v>
+        <v>1985.96</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1596.360000</v>
+        <v>-1596.36</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>33307.366735</v>
+        <v>33307.366735000003</v>
       </c>
       <c r="B13" s="1">
         <v>9.252046</v>
       </c>
       <c r="C13" s="1">
-        <v>900.793000</v>
+        <v>900.79300000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-183.054000</v>
+        <v>-183.054</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>33317.513394</v>
+        <v>33317.513394000001</v>
       </c>
       <c r="G13" s="1">
-        <v>9.254865</v>
+        <v>9.2548650000000006</v>
       </c>
       <c r="H13" s="1">
-        <v>917.520000</v>
+        <v>917.52</v>
       </c>
       <c r="I13" s="1">
-        <v>-157.910000</v>
+        <v>-157.91</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>33327.984931</v>
+        <v>33327.984930999999</v>
       </c>
       <c r="L13" s="1">
-        <v>9.257774</v>
+        <v>9.2577739999999995</v>
       </c>
       <c r="M13" s="1">
-        <v>941.909000</v>
+        <v>941.90899999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.054000</v>
+        <v>-117.054</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>33338.531868</v>
+        <v>33338.531867999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.260703</v>
+        <v>9.2607029999999995</v>
       </c>
       <c r="R13" s="1">
-        <v>949.672000</v>
+        <v>949.67200000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.852000</v>
+        <v>-102.852</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>33349.332778</v>
+        <v>33349.332778000004</v>
       </c>
       <c r="V13" s="1">
-        <v>9.263704</v>
+        <v>9.2637040000000006</v>
       </c>
       <c r="W13" s="1">
-        <v>957.351000</v>
+        <v>957.351</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.854900</v>
+        <v>-89.854900000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>33359.766617</v>
+        <v>33359.766617000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.266602</v>
+        <v>9.2666020000000007</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.514000</v>
+        <v>965.51400000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.676200</v>
+        <v>-80.676199999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>33370.250525</v>
+        <v>33370.250525000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.269514</v>
+        <v>9.2695139999999991</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.878000</v>
+        <v>970.87800000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.226500</v>
+        <v>-80.226500000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>33380.725053</v>
+        <v>33380.725053000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.272424</v>
+        <v>9.2724240000000009</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.086000</v>
+        <v>979.08600000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.908200</v>
+        <v>-87.908199999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>33391.491728</v>
+        <v>33391.491728000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.275414</v>
+        <v>9.2754139999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>988.394000</v>
+        <v>988.39400000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.750000</v>
+        <v>-102.75</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>33402.902689</v>
+        <v>33402.902689000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.278584</v>
+        <v>9.2785840000000004</v>
       </c>
       <c r="AV13" s="1">
-        <v>999.796000</v>
+        <v>999.79600000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.238000</v>
+        <v>-124.238</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>33413.960502</v>
+        <v>33413.960502000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.281656</v>
+        <v>9.2816559999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1009.440000</v>
+        <v>1009.44</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.938000</v>
+        <v>-142.93799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>33424.670119</v>
+        <v>33424.670119000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.284631</v>
+        <v>9.2846309999999992</v>
       </c>
       <c r="BF13" s="1">
-        <v>1054.520000</v>
+        <v>1054.52</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.820000</v>
+        <v>-227.82</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>33435.188741</v>
+        <v>33435.188740999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.287552</v>
+        <v>9.2875519999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1133.440000</v>
+        <v>1133.44</v>
       </c>
       <c r="BL13" s="1">
-        <v>-364.372000</v>
+        <v>-364.37200000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>33446.269366</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.290630</v>
+        <v>9.2906300000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.220000</v>
+        <v>1264.22</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.244000</v>
+        <v>-576.24400000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>33456.794473</v>
+        <v>33456.794473000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.293554</v>
+        <v>9.2935540000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>1411.350000</v>
+        <v>1411.35</v>
       </c>
       <c r="BV13" s="1">
-        <v>-803.704000</v>
+        <v>-803.70399999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>33467.583451</v>
+        <v>33467.583450999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.296551</v>
+        <v>9.2965509999999991</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1573.870000</v>
+        <v>1573.87</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1040.840000</v>
+        <v>-1040.8399999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>33479.717084</v>
+        <v>33479.717084000004</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.299921</v>
+        <v>9.2999209999999994</v>
       </c>
       <c r="CE13" s="1">
-        <v>1985.330000</v>
+        <v>1985.33</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1594.540000</v>
+        <v>-1594.54</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>33307.710002</v>
       </c>
       <c r="B14" s="1">
-        <v>9.252142</v>
+        <v>9.2521419999999992</v>
       </c>
       <c r="C14" s="1">
-        <v>900.772000</v>
+        <v>900.77200000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-183.001000</v>
+        <v>-183.001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>33317.856626</v>
+        <v>33317.856626000001</v>
       </c>
       <c r="G14" s="1">
-        <v>9.254960</v>
+        <v>9.2549600000000005</v>
       </c>
       <c r="H14" s="1">
-        <v>917.557000</v>
+        <v>917.55700000000002</v>
       </c>
       <c r="I14" s="1">
-        <v>-158.198000</v>
+        <v>-158.19800000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>33328.678843</v>
+        <v>33328.678843000002</v>
       </c>
       <c r="L14" s="1">
-        <v>9.257966</v>
+        <v>9.2579659999999997</v>
       </c>
       <c r="M14" s="1">
-        <v>942.131000</v>
+        <v>942.13099999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.955000</v>
+        <v>-116.955</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>33339.225801</v>
+        <v>33339.225801000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.260896</v>
+        <v>9.2608960000000007</v>
       </c>
       <c r="R14" s="1">
-        <v>949.672000</v>
+        <v>949.67200000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.829000</v>
+        <v>-102.82899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>33349.676966</v>
+        <v>33349.676965999999</v>
       </c>
       <c r="V14" s="1">
-        <v>9.263799</v>
+        <v>9.2637990000000006</v>
       </c>
       <c r="W14" s="1">
-        <v>957.308000</v>
+        <v>957.30799999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.913000</v>
+        <v>-89.912999999999997</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>33360.117753</v>
+        <v>33360.117752999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.266699</v>
+        <v>9.2666989999999991</v>
       </c>
       <c r="AB14" s="1">
-        <v>965.496000</v>
+        <v>965.49599999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.640300</v>
+        <v>-80.640299999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>33370.595243</v>
+        <v>33370.595243000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.269610</v>
+        <v>9.2696100000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>970.878000</v>
+        <v>970.87800000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.251000</v>
+        <v>-80.251000000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>33381.377309</v>
+        <v>33381.377309000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.272605</v>
+        <v>9.2726050000000004</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.080000</v>
+        <v>979.08</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.896000</v>
+        <v>-87.896000000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>33392.162287</v>
+        <v>33392.162286999999</v>
       </c>
       <c r="AP14" s="1">
         <v>9.275601</v>
       </c>
       <c r="AQ14" s="1">
-        <v>988.367000</v>
+        <v>988.36699999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.778000</v>
+        <v>-102.77800000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>33403.320785</v>
+        <v>33403.320785000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.278700</v>
+        <v>9.2787000000000006</v>
       </c>
       <c r="AV14" s="1">
-        <v>999.770000</v>
+        <v>999.77</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.231000</v>
+        <v>-124.23099999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>33414.341430</v>
+        <v>33414.34143</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.281762</v>
+        <v>9.2817620000000005</v>
       </c>
       <c r="BA14" s="1">
-        <v>1009.440000</v>
+        <v>1009.44</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.963000</v>
+        <v>-142.96299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>33425.032164</v>
+        <v>33425.032163999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.284731</v>
+        <v>9.2847310000000007</v>
       </c>
       <c r="BF14" s="1">
-        <v>1054.510000</v>
+        <v>1054.51</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.824000</v>
+        <v>-227.82400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>33435.563221</v>
+        <v>33435.563220999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.287656</v>
+        <v>9.2876560000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1133.410000</v>
+        <v>1133.4100000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-364.343000</v>
+        <v>-364.34300000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>33446.695462</v>
+        <v>33446.695462000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.290749</v>
+        <v>9.2907489999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.220000</v>
+        <v>1264.22</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.232000</v>
+        <v>-576.23199999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>33457.222520</v>
+        <v>33457.222520000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.293673</v>
+        <v>9.2936730000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1411.230000</v>
+        <v>1411.23</v>
       </c>
       <c r="BV14" s="1">
-        <v>-803.630000</v>
+        <v>-803.63</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>33468.012526</v>
+        <v>33468.012525999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.296670</v>
+        <v>9.2966700000000007</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1573.910000</v>
+        <v>1573.91</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1040.610000</v>
+        <v>-1040.6099999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>33480.254287</v>
+        <v>33480.254287000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.300071</v>
+        <v>9.3000710000000009</v>
       </c>
       <c r="CE14" s="1">
-        <v>1984.180000</v>
+        <v>1984.18</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1596.640000</v>
+        <v>-1596.64</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>33308.054686</v>
+        <v>33308.054686000003</v>
       </c>
       <c r="B15" s="1">
-        <v>9.252237</v>
+        <v>9.2522369999999992</v>
       </c>
       <c r="C15" s="1">
-        <v>900.547000</v>
+        <v>900.54700000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-183.014000</v>
+        <v>-183.01400000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>33318.546561</v>
+        <v>33318.546561000003</v>
       </c>
       <c r="G15" s="1">
-        <v>9.255152</v>
+        <v>9.2551520000000007</v>
       </c>
       <c r="H15" s="1">
-        <v>917.493000</v>
+        <v>917.49300000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-157.861000</v>
+        <v>-157.86099999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>33329.025042</v>
+        <v>33329.025042000001</v>
       </c>
       <c r="L15" s="1">
-        <v>9.258063</v>
+        <v>9.2580629999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>942.045000</v>
+        <v>942.04499999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.962000</v>
+        <v>-116.962</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>33339.578709</v>
+        <v>33339.578709000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.260994</v>
+        <v>9.2609940000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>949.681000</v>
+        <v>949.68100000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.856000</v>
+        <v>-102.85599999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>33350.020198</v>
+        <v>33350.020197999998</v>
       </c>
       <c r="V15" s="1">
-        <v>9.263894</v>
+        <v>9.2638940000000005</v>
       </c>
       <c r="W15" s="1">
-        <v>957.346000</v>
+        <v>957.346</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.887500</v>
+        <v>-89.887500000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>33360.768008</v>
+        <v>33360.768007999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.266880</v>
+        <v>9.2668800000000005</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.528000</v>
+        <v>965.52800000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.668200</v>
+        <v>-80.668199999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>33371.246027</v>
+        <v>33371.246027000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.269791</v>
+        <v>9.2697909999999997</v>
       </c>
       <c r="AG15" s="1">
-        <v>970.844000</v>
+        <v>970.84400000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.226100</v>
+        <v>-80.226100000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>33381.768621</v>
+        <v>33381.768621000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.272714</v>
+        <v>9.2727140000000006</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.089000</v>
+        <v>979.08900000000006</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.901500</v>
+        <v>-87.901499999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>33392.643405</v>
+        <v>33392.643405000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.275734</v>
+        <v>9.2757339999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>988.354000</v>
+        <v>988.35400000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.760000</v>
+        <v>-102.76</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>33403.689809</v>
+        <v>33403.689809000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.278803</v>
+        <v>9.2788029999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>999.787000</v>
+        <v>999.78700000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.241000</v>
+        <v>-124.241</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>33414.700994</v>
+        <v>33414.700993999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.281861</v>
+        <v>9.2818609999999993</v>
       </c>
       <c r="BA15" s="1">
-        <v>1009.410000</v>
+        <v>1009.41</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.956000</v>
+        <v>-142.95599999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>33425.393784</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.284832</v>
+        <v>9.2848319999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1054.500000</v>
+        <v>1054.5</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.806000</v>
+        <v>-227.80600000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>33435.977878</v>
+        <v>33435.977877999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.287772</v>
+        <v>9.2877720000000004</v>
       </c>
       <c r="BK15" s="1">
-        <v>1133.480000</v>
+        <v>1133.48</v>
       </c>
       <c r="BL15" s="1">
-        <v>-364.330000</v>
+        <v>-364.33</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>33447.085782</v>
+        <v>33447.085782000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.290857</v>
+        <v>9.2908570000000008</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.210000</v>
+        <v>1264.21</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.285000</v>
+        <v>-576.28499999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>33457.649606</v>
+        <v>33457.649605999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.293792</v>
+        <v>9.2937919999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1411.250000</v>
+        <v>1411.25</v>
       </c>
       <c r="BV15" s="1">
-        <v>-803.514000</v>
+        <v>-803.51400000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>33468.426185</v>
+        <v>33468.426184999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.296785</v>
+        <v>9.2967849999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1573.750000</v>
+        <v>1573.75</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1040.630000</v>
+        <v>-1040.6300000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>33480.796411</v>
+        <v>33480.796411000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.300221</v>
+        <v>9.3002210000000005</v>
       </c>
       <c r="CE15" s="1">
-        <v>1986.550000</v>
+        <v>1986.55</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1595.440000</v>
+        <v>-1595.44</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>33308.734701</v>
+        <v>33308.734701000001</v>
       </c>
       <c r="B16" s="1">
-        <v>9.252426</v>
+        <v>9.2524259999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>900.774000</v>
+        <v>900.774</v>
       </c>
       <c r="D16" s="1">
-        <v>-183.245000</v>
+        <v>-183.245</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>33318.890288</v>
+        <v>33318.890288000002</v>
       </c>
       <c r="G16" s="1">
-        <v>9.255247</v>
+        <v>9.2552470000000007</v>
       </c>
       <c r="H16" s="1">
-        <v>917.519000</v>
+        <v>917.51900000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-158.203000</v>
+        <v>-158.203</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>33329.368769</v>
+        <v>33329.368769000001</v>
       </c>
       <c r="L16" s="1">
-        <v>9.258158</v>
+        <v>9.2581579999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>941.829000</v>
+        <v>941.82899999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.099000</v>
+        <v>-117.099</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>33339.924659</v>
+        <v>33339.924658999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.261090</v>
+        <v>9.2610899999999994</v>
       </c>
       <c r="R16" s="1">
-        <v>949.709000</v>
+        <v>949.70899999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.873000</v>
+        <v>-102.873</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>33350.675413</v>
+        <v>33350.675412999997</v>
       </c>
       <c r="V16" s="1">
-        <v>9.264077</v>
+        <v>9.2640770000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>957.325000</v>
+        <v>957.32500000000005</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.932300</v>
+        <v>-89.932299999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>33361.162855</v>
+        <v>33361.162855000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.266990</v>
+        <v>9.2669899999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.529000</v>
+        <v>965.529</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.658400</v>
+        <v>-80.6584</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>33371.624441</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.269896</v>
+        <v>9.2698959999999992</v>
       </c>
       <c r="AG16" s="1">
-        <v>970.851000</v>
+        <v>970.851</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.218000</v>
+        <v>-80.218000000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>33382.116315</v>
+        <v>33382.116314999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.272810</v>
+        <v>9.2728099999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.072000</v>
+        <v>979.072</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.909300</v>
+        <v>-87.909300000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>33392.960366</v>
+        <v>33392.960365999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.275822</v>
+        <v>9.2758219999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>988.384000</v>
+        <v>988.38400000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.764000</v>
+        <v>-102.764</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>33404.050927</v>
+        <v>33404.050926999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.278903</v>
+        <v>9.2789029999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>999.805000</v>
+        <v>999.80499999999995</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.246000</v>
+        <v>-124.246</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>33415.116176</v>
+        <v>33415.116176000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.281977</v>
+        <v>9.2819769999999995</v>
       </c>
       <c r="BA16" s="1">
-        <v>1009.410000</v>
+        <v>1009.41</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.952000</v>
+        <v>-142.952</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>33425.830760</v>
+        <v>33425.830759999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.284953</v>
+        <v>9.2849529999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1054.520000</v>
+        <v>1054.52</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.814000</v>
+        <v>-227.81399999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>33436.318164</v>
+        <v>33436.318163999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.287866</v>
+        <v>9.2878659999999993</v>
       </c>
       <c r="BK16" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL16" s="1">
-        <v>-364.319000</v>
+        <v>-364.31900000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>33447.509892</v>
+        <v>33447.509892000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.290975</v>
+        <v>9.2909749999999995</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.210000</v>
+        <v>1264.21</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.252000</v>
+        <v>-576.25199999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>33458.064728</v>
+        <v>33458.064727999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.293907</v>
+        <v>9.2939070000000008</v>
       </c>
       <c r="BU16" s="1">
-        <v>1411.130000</v>
+        <v>1411.13</v>
       </c>
       <c r="BV16" s="1">
-        <v>-803.385000</v>
+        <v>-803.38499999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>33468.881513</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.296912</v>
+        <v>9.2969120000000007</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1573.810000</v>
+        <v>1573.81</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1040.700000</v>
+        <v>-1040.7</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>33481.333577</v>
+        <v>33481.333576999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.300370</v>
+        <v>9.3003699999999991</v>
       </c>
       <c r="CE16" s="1">
-        <v>1984.320000</v>
+        <v>1984.32</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1594.990000</v>
+        <v>-1594.99</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>33309.133485</v>
+        <v>33309.133484999998</v>
       </c>
       <c r="B17" s="1">
-        <v>9.252537</v>
+        <v>9.2525370000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>900.721000</v>
+        <v>900.721</v>
       </c>
       <c r="D17" s="1">
-        <v>-183.169000</v>
+        <v>-183.16900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>33319.237487</v>
+        <v>33319.237486999999</v>
       </c>
       <c r="G17" s="1">
-        <v>9.255344</v>
+        <v>9.2553439999999991</v>
       </c>
       <c r="H17" s="1">
-        <v>917.440000</v>
+        <v>917.44</v>
       </c>
       <c r="I17" s="1">
-        <v>-157.898000</v>
+        <v>-157.898</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>33330.024480</v>
+        <v>33330.02448</v>
       </c>
       <c r="L17" s="1">
-        <v>9.258340</v>
+        <v>9.2583400000000005</v>
       </c>
       <c r="M17" s="1">
-        <v>942.030000</v>
+        <v>942.03</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.076000</v>
+        <v>-117.07599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>33340.582365</v>
+        <v>33340.582365000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.261273</v>
+        <v>9.2612729999999992</v>
       </c>
       <c r="R17" s="1">
-        <v>949.651000</v>
+        <v>949.65099999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.843000</v>
+        <v>-102.843</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>33351.050390</v>
+        <v>33351.050389999997</v>
       </c>
       <c r="V17" s="1">
-        <v>9.264181</v>
+        <v>9.2641810000000007</v>
       </c>
       <c r="W17" s="1">
-        <v>957.294000</v>
+        <v>957.29399999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.849600</v>
+        <v>-89.849599999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>33361.506552</v>
+        <v>33361.506551999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.267085</v>
+        <v>9.2670849999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.435000</v>
+        <v>965.43499999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.694700</v>
+        <v>-80.694699999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>33371.966708</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.269991</v>
+        <v>9.2699909999999992</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.833000</v>
+        <v>970.83299999999997</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.239200</v>
+        <v>-80.239199999999997</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>33382.465996</v>
+        <v>33382.465995999999</v>
       </c>
       <c r="AK17" s="1">
         <v>9.272907</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.060000</v>
+        <v>979.06</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.889900</v>
+        <v>-87.889899999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>33393.566956</v>
+        <v>33393.566956000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.275991</v>
+        <v>9.2759909999999994</v>
       </c>
       <c r="AQ17" s="1">
-        <v>988.363000</v>
+        <v>988.36300000000006</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.770000</v>
+        <v>-102.77</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>33404.471998</v>
+        <v>33404.471998000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.279020</v>
+        <v>9.2790199999999992</v>
       </c>
       <c r="AV17" s="1">
-        <v>999.802000</v>
+        <v>999.80200000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.223000</v>
+        <v>-124.223</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>33415.419696</v>
+        <v>33415.419695999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.282061</v>
+        <v>9.2820610000000006</v>
       </c>
       <c r="BA17" s="1">
-        <v>1009.400000</v>
+        <v>1009.4</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.959000</v>
+        <v>-142.959</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>33426.116951</v>
+        <v>33426.116951000004</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.285032</v>
+        <v>9.2850319999999993</v>
       </c>
       <c r="BF17" s="1">
-        <v>1054.490000</v>
+        <v>1054.49</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.833000</v>
+        <v>-227.833</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>33436.696579</v>
+        <v>33436.696579000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.287971</v>
+        <v>9.2879710000000006</v>
       </c>
       <c r="BK17" s="1">
-        <v>1133.440000</v>
+        <v>1133.44</v>
       </c>
       <c r="BL17" s="1">
-        <v>-364.345000</v>
+        <v>-364.34500000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>33447.907157</v>
+        <v>33447.907157000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.291085</v>
+        <v>9.2910850000000007</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.180000</v>
+        <v>1264.18</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.239000</v>
+        <v>-576.23900000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>33458.490792</v>
+        <v>33458.490791999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.294025</v>
+        <v>9.2940249999999995</v>
       </c>
       <c r="BU17" s="1">
-        <v>1411.200000</v>
+        <v>1411.2</v>
       </c>
       <c r="BV17" s="1">
-        <v>-803.283000</v>
+        <v>-803.28300000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>33469.332872</v>
+        <v>33469.332871999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.297037</v>
+        <v>9.2970369999999996</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1573.820000</v>
+        <v>1573.82</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1040.740000</v>
+        <v>-1040.74</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>33481.873724</v>
+        <v>33481.873723999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.300520</v>
+        <v>9.3005200000000006</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.180000</v>
+        <v>1985.18</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1596.660000</v>
+        <v>-1596.66</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>33309.465842</v>
+        <v>33309.465841999998</v>
       </c>
       <c r="B18" s="1">
-        <v>9.252629</v>
+        <v>9.2526290000000007</v>
       </c>
       <c r="C18" s="1">
-        <v>900.651000</v>
+        <v>900.65099999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-183.008000</v>
+        <v>-183.00800000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>33319.897166</v>
+        <v>33319.897166000002</v>
       </c>
       <c r="G18" s="1">
-        <v>9.255527</v>
+        <v>9.2555270000000007</v>
       </c>
       <c r="H18" s="1">
-        <v>917.603000</v>
+        <v>917.60299999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>-158.247000</v>
+        <v>-158.24700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>33330.402929</v>
+        <v>33330.402929000003</v>
       </c>
       <c r="L18" s="1">
         <v>9.258445</v>
       </c>
       <c r="M18" s="1">
-        <v>941.929000</v>
+        <v>941.92899999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.001000</v>
+        <v>-117.001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>33340.971682</v>
+        <v>33340.971682000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.261381</v>
+        <v>9.2613810000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>949.665000</v>
+        <v>949.66499999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.847000</v>
+        <v>-102.84699999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>33351.394282</v>
+        <v>33351.394282000001</v>
       </c>
       <c r="V18" s="1">
-        <v>9.264276</v>
+        <v>9.2642760000000006</v>
       </c>
       <c r="W18" s="1">
-        <v>957.272000</v>
+        <v>957.27200000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.852500</v>
+        <v>-89.852500000000006</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>33361.848804</v>
+        <v>33361.848804000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.267180</v>
+        <v>9.2671799999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.533000</v>
+        <v>965.53300000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.620900</v>
+        <v>-80.620900000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>33372.312425</v>
+        <v>33372.312424999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.270087</v>
+        <v>9.2700870000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.844000</v>
+        <v>970.84400000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.254200</v>
+        <v>-80.254199999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>33382.892059</v>
+        <v>33382.892058999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.273026</v>
+        <v>9.2730259999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.089000</v>
+        <v>979.08900000000006</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.911100</v>
+        <v>-87.911100000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>33393.695422</v>
+        <v>33393.695421999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.276027</v>
+        <v>9.2760269999999991</v>
       </c>
       <c r="AQ18" s="1">
-        <v>988.372000</v>
+        <v>988.37199999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.756000</v>
+        <v>-102.756</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>33404.783983</v>
+        <v>33404.783983000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.279107</v>
+        <v>9.2791069999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>999.789000</v>
+        <v>999.78899999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.212000</v>
+        <v>-124.212</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>33415.777807</v>
+        <v>33415.777806999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.282161</v>
+        <v>9.2821610000000003</v>
       </c>
       <c r="BA18" s="1">
-        <v>1009.410000</v>
+        <v>1009.41</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.933000</v>
+        <v>-142.93299999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>33426.475523</v>
+        <v>33426.475523000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.285132</v>
+        <v>9.2851320000000008</v>
       </c>
       <c r="BF18" s="1">
-        <v>1054.520000</v>
+        <v>1054.52</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.790000</v>
+        <v>-227.79</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>33437.087427</v>
+        <v>33437.087426999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.288080</v>
+        <v>9.2880800000000008</v>
       </c>
       <c r="BK18" s="1">
-        <v>1133.440000</v>
+        <v>1133.44</v>
       </c>
       <c r="BL18" s="1">
-        <v>-364.342000</v>
+        <v>-364.34199999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>33448.335885</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.291204</v>
+        <v>9.2912040000000005</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.190000</v>
+        <v>1264.19</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.245000</v>
+        <v>-576.245</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>33458.921816</v>
+        <v>33458.921816000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.294145</v>
+        <v>9.2941450000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1411.210000</v>
+        <v>1411.21</v>
       </c>
       <c r="BV18" s="1">
-        <v>-803.204000</v>
+        <v>-803.20399999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>33469.784697</v>
+        <v>33469.784697000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.297162</v>
+        <v>9.2971620000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1574.020000</v>
+        <v>1574.02</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1040.670000</v>
+        <v>-1040.67</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>33482.413375</v>
+        <v>33482.413374999996</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.300670</v>
+        <v>9.3006700000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>1985.820000</v>
+        <v>1985.82</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1594.980000</v>
+        <v>-1594.98</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>33309.897326</v>
+        <v>33309.897325999998</v>
       </c>
       <c r="B19" s="1">
-        <v>9.252749</v>
+        <v>9.2527489999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>900.658000</v>
+        <v>900.65800000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-183.238000</v>
+        <v>-183.238</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>33320.269661</v>
+        <v>33320.269660999998</v>
       </c>
       <c r="G19" s="1">
-        <v>9.255630</v>
+        <v>9.25563</v>
       </c>
       <c r="H19" s="1">
-        <v>917.443000</v>
+        <v>917.44299999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-158.015000</v>
+        <v>-158.01499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>33330.750625</v>
+        <v>33330.750625000001</v>
       </c>
       <c r="L19" s="1">
-        <v>9.258542</v>
+        <v>9.2585420000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>942.010000</v>
+        <v>942.01</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.909000</v>
+        <v>-116.90900000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>33341.320403</v>
+        <v>33341.320402999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.261478</v>
+        <v>9.2614780000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>949.649000</v>
+        <v>949.649</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.823000</v>
+        <v>-102.82299999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>33351.737348</v>
+        <v>33351.737348000002</v>
       </c>
       <c r="V19" s="1">
-        <v>9.264371</v>
+        <v>9.2643710000000006</v>
       </c>
       <c r="W19" s="1">
-        <v>957.330000</v>
+        <v>957.33</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.910800</v>
+        <v>-89.910799999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>33362.273407</v>
+        <v>33362.273407000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.267298</v>
+        <v>9.2672980000000003</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.515000</v>
+        <v>965.51499999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.782900</v>
+        <v>-80.782899999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>33372.732042</v>
+        <v>33372.732042000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.270203</v>
+        <v>9.2702030000000004</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.842000</v>
+        <v>970.84199999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.229900</v>
+        <v>-80.229900000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>33383.170348</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.273103</v>
+        <v>9.2731030000000008</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.044000</v>
+        <v>979.04399999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.892800</v>
+        <v>-87.892799999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>33394.075852</v>
+        <v>33394.075852000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.276132</v>
+        <v>9.2761320000000005</v>
       </c>
       <c r="AQ19" s="1">
-        <v>988.366000</v>
+        <v>988.36599999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.762000</v>
+        <v>-102.762</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>33405.147053</v>
+        <v>33405.147053000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.279208</v>
+        <v>9.2792080000000006</v>
       </c>
       <c r="AV19" s="1">
-        <v>999.799000</v>
+        <v>999.79899999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.245000</v>
+        <v>-124.245</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>33416.134431</v>
+        <v>33416.134430999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.282260</v>
+        <v>9.2822600000000008</v>
       </c>
       <c r="BA19" s="1">
-        <v>1009.400000</v>
+        <v>1009.4</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.937000</v>
+        <v>-142.93700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>33427.040499</v>
+        <v>33427.040499000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.285289</v>
+        <v>9.2852890000000006</v>
       </c>
       <c r="BF19" s="1">
-        <v>1054.530000</v>
+        <v>1054.53</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.817000</v>
+        <v>-227.81700000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>33437.836892</v>
+        <v>33437.836891999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.288288</v>
+        <v>9.2882879999999997</v>
       </c>
       <c r="BK19" s="1">
-        <v>1133.470000</v>
+        <v>1133.47</v>
       </c>
       <c r="BL19" s="1">
-        <v>-364.326000</v>
+        <v>-364.32600000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>33448.724595</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.291312</v>
+        <v>9.2913119999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.190000</v>
+        <v>1264.19</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.285000</v>
+        <v>-576.28499999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>33459.334625</v>
+        <v>33459.334625000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.294260</v>
+        <v>9.2942599999999995</v>
       </c>
       <c r="BU19" s="1">
-        <v>1411.410000</v>
+        <v>1411.41</v>
       </c>
       <c r="BV19" s="1">
-        <v>-803.099000</v>
+        <v>-803.09900000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>33470.202327</v>
+        <v>33470.202326999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.297278</v>
+        <v>9.2972780000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1573.950000</v>
+        <v>1573.95</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1040.650000</v>
+        <v>-1040.6500000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>33483.278395</v>
+        <v>33483.278395000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.300911</v>
+        <v>9.3009109999999993</v>
       </c>
       <c r="CE19" s="1">
-        <v>1985.610000</v>
+        <v>1985.61</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1596.490000</v>
+        <v>-1596.49</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>33310.176570</v>
+        <v>33310.176570000003</v>
       </c>
       <c r="B20" s="1">
-        <v>9.252827</v>
+        <v>9.2528269999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>900.620000</v>
+        <v>900.62</v>
       </c>
       <c r="D20" s="1">
-        <v>-182.862000</v>
+        <v>-182.86199999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>33320.617358</v>
+        <v>33320.617358000003</v>
       </c>
       <c r="G20" s="1">
-        <v>9.255727</v>
+        <v>9.2557270000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>917.354000</v>
+        <v>917.35400000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-158.278000</v>
+        <v>-158.27799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>33331.096837</v>
+        <v>33331.096836999997</v>
       </c>
       <c r="L20" s="1">
-        <v>9.258638</v>
+        <v>9.2586379999999995</v>
       </c>
       <c r="M20" s="1">
-        <v>942.008000</v>
+        <v>942.00800000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.938000</v>
+        <v>-116.938</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>33341.672033</v>
+        <v>33341.672033000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.261576</v>
+        <v>9.2615759999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>949.709000</v>
+        <v>949.70899999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.838000</v>
+        <v>-102.83799999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>33352.168899</v>
+        <v>33352.168898999997</v>
       </c>
       <c r="V20" s="1">
-        <v>9.264491</v>
+        <v>9.2644909999999996</v>
       </c>
       <c r="W20" s="1">
-        <v>957.288000</v>
+        <v>957.28800000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.908300</v>
+        <v>-89.908299999999997</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>33362.559066</v>
+        <v>33362.559066000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.267378</v>
+        <v>9.2673780000000008</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.551000</v>
+        <v>965.55100000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.747400</v>
+        <v>-80.747399999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>33373.018732</v>
+        <v>33373.018731999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.270283</v>
+        <v>9.2702829999999992</v>
       </c>
       <c r="AG20" s="1">
-        <v>970.846000</v>
+        <v>970.846</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.235800</v>
+        <v>-80.235799999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>33383.519033</v>
+        <v>33383.519032999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.273200</v>
+        <v>9.2731999999999992</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.069000</v>
+        <v>979.06899999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.923200</v>
+        <v>-87.923199999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>33394.429501</v>
+        <v>33394.429500999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.276230</v>
+        <v>9.27623</v>
       </c>
       <c r="AQ20" s="1">
-        <v>988.380000</v>
+        <v>988.38</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.743000</v>
+        <v>-102.74299999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>33405.511152</v>
+        <v>33405.511151999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.279309</v>
+        <v>9.2793089999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>999.804000</v>
+        <v>999.80399999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.242000</v>
+        <v>-124.242</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>33416.857101</v>
+        <v>33416.857101000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.282460</v>
+        <v>9.2824600000000004</v>
       </c>
       <c r="BA20" s="1">
-        <v>1009.410000</v>
+        <v>1009.41</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.964000</v>
+        <v>-142.964</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>33427.199680</v>
+        <v>33427.199679999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.285333</v>
+        <v>9.2853329999999996</v>
       </c>
       <c r="BF20" s="1">
-        <v>1054.510000</v>
+        <v>1054.51</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.811000</v>
+        <v>-227.81100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>33438.239665</v>
+        <v>33438.239665000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.288400</v>
+        <v>9.2883999999999993</v>
       </c>
       <c r="BK20" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL20" s="1">
-        <v>-364.346000</v>
+        <v>-364.346</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>33449.143684</v>
+        <v>33449.143684000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.291429</v>
+        <v>9.2914290000000008</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.190000</v>
+        <v>1264.19</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.268000</v>
+        <v>-576.26800000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>33459.762072</v>
+        <v>33459.762071999998</v>
       </c>
       <c r="BT20" s="1">
         <v>9.294378</v>
       </c>
       <c r="BU20" s="1">
-        <v>1411.430000</v>
+        <v>1411.43</v>
       </c>
       <c r="BV20" s="1">
-        <v>-803.019000</v>
+        <v>-803.01900000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>33470.925496</v>
+        <v>33470.925496000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.297479</v>
+        <v>9.2974789999999992</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1573.970000</v>
+        <v>1573.97</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1040.630000</v>
+        <v>-1040.6300000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>33483.493125</v>
+        <v>33483.493125000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.300970</v>
+        <v>9.3009699999999995</v>
       </c>
       <c r="CE20" s="1">
-        <v>1985.450000</v>
+        <v>1985.45</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1596.370000</v>
+        <v>-1596.37</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>33310.518314</v>
+        <v>33310.518314000001</v>
       </c>
       <c r="B21" s="1">
-        <v>9.252922</v>
+        <v>9.2529219999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>900.628000</v>
+        <v>900.62800000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-183.039000</v>
+        <v>-183.03899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>33320.959629</v>
+        <v>33320.959628999997</v>
       </c>
       <c r="G21" s="1">
-        <v>9.255822</v>
+        <v>9.2558220000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>917.501000</v>
+        <v>917.50099999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-158.843000</v>
+        <v>-158.84299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>33331.514464</v>
       </c>
       <c r="L21" s="1">
-        <v>9.258754</v>
+        <v>9.2587539999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>941.983000</v>
+        <v>941.98299999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.958000</v>
+        <v>-116.958</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>33342.098097</v>
+        <v>33342.098097000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.261694</v>
+        <v>9.2616940000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>949.701000</v>
+        <v>949.70100000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.875000</v>
+        <v>-102.875</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>33352.450629</v>
+        <v>33352.450628999999</v>
       </c>
       <c r="V21" s="1">
-        <v>9.264570</v>
+        <v>9.2645700000000009</v>
       </c>
       <c r="W21" s="1">
-        <v>957.274000</v>
+        <v>957.274</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.907700</v>
+        <v>-89.907700000000006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>33362.906262</v>
+        <v>33362.906261999997</v>
       </c>
       <c r="AA21" s="1">
         <v>9.267474</v>
       </c>
       <c r="AB21" s="1">
-        <v>965.344000</v>
+        <v>965.34400000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-81.070000</v>
+        <v>-81.069999999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>33373.362425</v>
+        <v>33373.362424999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.270378</v>
+        <v>9.2703779999999991</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.863000</v>
+        <v>970.86300000000006</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.272700</v>
+        <v>-80.2727</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>33383.867722</v>
+        <v>33383.867722000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.273297</v>
+        <v>9.2732969999999995</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.105000</v>
+        <v>979.10500000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.925100</v>
+        <v>-87.9251</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>33395.155179</v>
+        <v>33395.155179000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.276432</v>
+        <v>9.2764319999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>988.372000</v>
+        <v>988.37199999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.754000</v>
+        <v>-102.754</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>33406.243214</v>
+        <v>33406.243214000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.279512</v>
+        <v>9.2795120000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>999.787000</v>
+        <v>999.78700000000003</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.230000</v>
+        <v>-124.23</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>33417.232573</v>
+        <v>33417.232573000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>9.282565</v>
       </c>
       <c r="BA21" s="1">
-        <v>1009.410000</v>
+        <v>1009.41</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.958000</v>
+        <v>-142.958</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>33427.559775</v>
+        <v>33427.559775000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.285433</v>
+        <v>9.2854329999999994</v>
       </c>
       <c r="BF21" s="1">
-        <v>1054.500000</v>
+        <v>1054.5</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.813000</v>
+        <v>-227.81299999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>33438.614113</v>
+        <v>33438.614113000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.288504</v>
+        <v>9.2885039999999996</v>
       </c>
       <c r="BK21" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL21" s="1">
-        <v>-364.369000</v>
+        <v>-364.36900000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>33449.844036</v>
+        <v>33449.844036000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.291623</v>
+        <v>9.2916229999999995</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.190000</v>
+        <v>1264.19</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.313000</v>
+        <v>-576.31299999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>33460.480740</v>
+        <v>33460.480739999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.294578</v>
+        <v>9.2945779999999996</v>
       </c>
       <c r="BU21" s="1">
-        <v>1411.620000</v>
+        <v>1411.62</v>
       </c>
       <c r="BV21" s="1">
-        <v>-803.001000</v>
+        <v>-803.00099999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>33471.108054</v>
+        <v>33471.108053999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.297530</v>
+        <v>9.2975300000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1573.880000</v>
+        <v>1573.88</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1040.700000</v>
+        <v>-1040.7</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>33484.013429</v>
+        <v>33484.013428999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.301115</v>
+        <v>9.3011149999999994</v>
       </c>
       <c r="CE21" s="1">
-        <v>1985.770000</v>
+        <v>1985.77</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1595.220000</v>
+        <v>-1595.22</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>33310.937932</v>
+        <v>33310.937932000001</v>
       </c>
       <c r="B22" s="1">
-        <v>9.253038</v>
+        <v>9.2530380000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>900.671000</v>
+        <v>900.67100000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-182.890000</v>
+        <v>-182.89</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>33321.378733</v>
+        <v>33321.378732999998</v>
       </c>
       <c r="G22" s="1">
-        <v>9.255939</v>
+        <v>9.2559389999999997</v>
       </c>
       <c r="H22" s="1">
-        <v>917.490000</v>
+        <v>917.49</v>
       </c>
       <c r="I22" s="1">
-        <v>-158.633000</v>
+        <v>-158.63300000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>33331.808620</v>
+        <v>33331.808620000003</v>
       </c>
       <c r="L22" s="1">
-        <v>9.258836</v>
+        <v>9.2588360000000005</v>
       </c>
       <c r="M22" s="1">
-        <v>942.125000</v>
+        <v>942.125</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.991000</v>
+        <v>-116.991</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>33342.375865</v>
+        <v>33342.375865000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.261771</v>
+        <v>9.2617709999999995</v>
       </c>
       <c r="R22" s="1">
-        <v>949.726000</v>
+        <v>949.726</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.886000</v>
+        <v>-102.886</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>33352.788895</v>
+        <v>33352.788894999998</v>
       </c>
       <c r="V22" s="1">
-        <v>9.264664</v>
+        <v>9.2646639999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>957.339000</v>
+        <v>957.33900000000006</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.900200</v>
+        <v>-89.900199999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>33363.252005</v>
+        <v>33363.252005000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.267570</v>
+        <v>9.2675699999999992</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.491000</v>
+        <v>965.49099999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.621600</v>
+        <v>-80.621600000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>33373.708631</v>
+        <v>33373.708631000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.270475</v>
+        <v>9.2704749999999994</v>
       </c>
       <c r="AG22" s="1">
-        <v>970.857000</v>
+        <v>970.85699999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.203300</v>
+        <v>-80.203299999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>33384.565561</v>
+        <v>33384.565561000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.273490</v>
+        <v>9.2734900000000007</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.045000</v>
+        <v>979.04499999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.931800</v>
+        <v>-87.931799999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>33395.513258</v>
+        <v>33395.513257999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.276531</v>
+        <v>9.2765310000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>988.390000</v>
+        <v>988.39</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.777000</v>
+        <v>-102.777</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>33406.624149</v>
+        <v>33406.624149000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.279618</v>
+        <v>9.2796179999999993</v>
       </c>
       <c r="AV22" s="1">
-        <v>999.788000</v>
+        <v>999.78800000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.248000</v>
+        <v>-124.248</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>33417.613036</v>
+        <v>33417.613036000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.282670</v>
+        <v>9.2826699999999995</v>
       </c>
       <c r="BA22" s="1">
-        <v>1009.420000</v>
+        <v>1009.42</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.939000</v>
+        <v>-142.93899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>33428.224943</v>
+        <v>33428.224943000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.285618</v>
+        <v>9.2856179999999995</v>
       </c>
       <c r="BF22" s="1">
-        <v>1054.500000</v>
+        <v>1054.5</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.816000</v>
+        <v>-227.816</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>33439.294129</v>
+        <v>33439.294129000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.288693</v>
+        <v>9.2886930000000003</v>
       </c>
       <c r="BK22" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL22" s="1">
-        <v>-364.341000</v>
+        <v>-364.34100000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>33449.961122</v>
+        <v>33449.961122000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.291656</v>
+        <v>9.2916559999999997</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.180000</v>
+        <v>1264.18</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.257000</v>
+        <v>-576.25699999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>33460.637510</v>
+        <v>33460.63751</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.294622</v>
+        <v>9.2946220000000004</v>
       </c>
       <c r="BU22" s="1">
-        <v>1411.700000</v>
+        <v>1411.7</v>
       </c>
       <c r="BV22" s="1">
-        <v>-803.042000</v>
+        <v>-803.04200000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>33471.533627</v>
+        <v>33471.533626999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.297648</v>
+        <v>9.2976480000000006</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1573.760000</v>
+        <v>1573.76</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1040.610000</v>
+        <v>-1040.6099999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>33484.532743</v>
+        <v>33484.532743000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.301259</v>
+        <v>9.3012589999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1986.180000</v>
+        <v>1986.18</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1595.640000</v>
+        <v>-1595.64</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>33311.218171</v>
       </c>
       <c r="B23" s="1">
-        <v>9.253116</v>
+        <v>9.2531160000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>900.592000</v>
+        <v>900.59199999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-182.938000</v>
+        <v>-182.93799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>33321.657467</v>
+        <v>33321.657466999997</v>
       </c>
       <c r="G23" s="1">
-        <v>9.256016</v>
+        <v>9.2560160000000007</v>
       </c>
       <c r="H23" s="1">
-        <v>917.195000</v>
+        <v>917.19500000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-158.128000</v>
+        <v>-158.12799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>33332.156783</v>
+        <v>33332.156782999999</v>
       </c>
       <c r="L23" s="1">
-        <v>9.258932</v>
+        <v>9.2589319999999997</v>
       </c>
       <c r="M23" s="1">
-        <v>942.155000</v>
+        <v>942.15499999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.046000</v>
+        <v>-117.04600000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>33342.726529</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.261868</v>
+        <v>9.2618679999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>949.698000</v>
+        <v>949.69799999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.892000</v>
+        <v>-102.892</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>33353.132623</v>
+        <v>33353.132622999998</v>
       </c>
       <c r="V23" s="1">
-        <v>9.264759</v>
+        <v>9.2647589999999997</v>
       </c>
       <c r="W23" s="1">
-        <v>957.300000</v>
+        <v>957.3</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.951800</v>
+        <v>-89.951800000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>33363.951864</v>
+        <v>33363.951864000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.267764</v>
+        <v>9.2677639999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.532000</v>
+        <v>965.53200000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.624100</v>
+        <v>-80.624099999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>33374.397079</v>
+        <v>33374.397079000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.270666</v>
+        <v>9.2706660000000003</v>
       </c>
       <c r="AG23" s="1">
-        <v>970.863000</v>
+        <v>970.86300000000006</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.224700</v>
+        <v>-80.224699999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>33384.913257</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.273587</v>
+        <v>9.2735869999999991</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.069000</v>
+        <v>979.06899999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.916000</v>
+        <v>-87.915999999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>33395.872361</v>
+        <v>33395.872361000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.276631</v>
+        <v>9.2766310000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>988.388000</v>
+        <v>988.38800000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.764000</v>
+        <v>-102.764</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>33406.989554</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.279719</v>
+        <v>9.2797190000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>999.783000</v>
+        <v>999.78300000000002</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.242000</v>
+        <v>-124.242</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>33418.274700</v>
+        <v>33418.274700000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.282854</v>
+        <v>9.2828540000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1009.410000</v>
+        <v>1009.41</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.944000</v>
+        <v>-142.94399999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>33428.674782</v>
+        <v>33428.674782000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.285743</v>
+        <v>9.2857430000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1054.530000</v>
+        <v>1054.53</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.801000</v>
+        <v>-227.80099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>33439.399280</v>
+        <v>33439.399279999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.288722</v>
+        <v>9.2887219999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1133.440000</v>
+        <v>1133.44</v>
       </c>
       <c r="BL23" s="1">
-        <v>-364.306000</v>
+        <v>-364.30599999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>33450.383185</v>
+        <v>33450.383184999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.291773</v>
+        <v>9.2917729999999992</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.271000</v>
+        <v>-576.27099999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>33461.051637</v>
+        <v>33461.051636999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.294737</v>
+        <v>9.2947369999999996</v>
       </c>
       <c r="BU23" s="1">
-        <v>1411.750000</v>
+        <v>1411.75</v>
       </c>
       <c r="BV23" s="1">
-        <v>-803.130000</v>
+        <v>-803.13</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>33471.982469</v>
+        <v>33471.982469000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.297773</v>
+        <v>9.2977729999999994</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1573.790000</v>
+        <v>1573.79</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1040.710000</v>
+        <v>-1040.71</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>33485.084332</v>
+        <v>33485.084331999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.301412</v>
+        <v>9.3014119999999991</v>
       </c>
       <c r="CE23" s="1">
-        <v>1985.420000</v>
+        <v>1985.42</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1596.910000</v>
+        <v>-1596.91</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>33311.559913</v>
+        <v>33311.559912999997</v>
       </c>
       <c r="B24" s="1">
-        <v>9.253211</v>
+        <v>9.2532110000000003</v>
       </c>
       <c r="C24" s="1">
-        <v>900.581000</v>
+        <v>900.58100000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-182.990000</v>
+        <v>-182.99</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>33322.000699</v>
+        <v>33322.000698999997</v>
       </c>
       <c r="G24" s="1">
-        <v>9.256111</v>
+        <v>9.2561110000000006</v>
       </c>
       <c r="H24" s="1">
-        <v>917.249000</v>
+        <v>917.24900000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-158.084000</v>
+        <v>-158.084</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>33332.501997</v>
+        <v>33332.501996999999</v>
       </c>
       <c r="L24" s="1">
-        <v>9.259028</v>
+        <v>9.2590280000000007</v>
       </c>
       <c r="M24" s="1">
-        <v>941.897000</v>
+        <v>941.89700000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.001000</v>
+        <v>-117.001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>33343.424401</v>
+        <v>33343.424400999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.262062</v>
+        <v>9.2620620000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>949.669000</v>
+        <v>949.66899999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.854000</v>
+        <v>-102.854</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>33353.823521</v>
+        <v>33353.823520999998</v>
       </c>
       <c r="V24" s="1">
-        <v>9.264951</v>
+        <v>9.2649509999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>957.304000</v>
+        <v>957.30399999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.900500</v>
+        <v>-89.900499999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>33364.300051</v>
+        <v>33364.300050999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.267861</v>
+        <v>9.2678609999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.461000</v>
+        <v>965.46100000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.707300</v>
+        <v>-80.707300000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>33374.737831</v>
+        <v>33374.737830999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.270761</v>
+        <v>9.2707610000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>970.838000</v>
+        <v>970.83799999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.254500</v>
+        <v>-80.254499999999993</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>33385.261945</v>
+        <v>33385.261944999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.273684</v>
+        <v>9.2736839999999994</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.088000</v>
+        <v>979.08799999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.917700</v>
+        <v>-87.917699999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>33396.545466</v>
+        <v>33396.545466000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.276818</v>
+        <v>9.2768180000000005</v>
       </c>
       <c r="AQ24" s="1">
-        <v>988.370000</v>
+        <v>988.37</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.765000</v>
+        <v>-102.765</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>33407.659818</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.279906</v>
+        <v>9.2799060000000004</v>
       </c>
       <c r="AV24" s="1">
-        <v>999.807000</v>
+        <v>999.80700000000002</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.234000</v>
+        <v>-124.23399999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>33418.695275</v>
+        <v>33418.695274999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.282971</v>
+        <v>9.2829709999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1009.420000</v>
+        <v>1009.42</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.948000</v>
+        <v>-142.94800000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>33429.034382</v>
+        <v>33429.034381999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.285843</v>
+        <v>9.2858429999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1054.510000</v>
+        <v>1054.51</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.804000</v>
+        <v>-227.804</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>33439.767313</v>
+        <v>33439.767312999997</v>
       </c>
       <c r="BJ24" s="1">
         <v>9.288824</v>
       </c>
       <c r="BK24" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL24" s="1">
-        <v>-364.358000</v>
+        <v>-364.358</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>33450.782993</v>
+        <v>33450.782993000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.291884</v>
+        <v>9.2918839999999996</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.210000</v>
+        <v>1264.21</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.241000</v>
+        <v>-576.24099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>33461.476212</v>
+        <v>33461.476212000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.294855</v>
+        <v>9.2948550000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="BV24" s="1">
-        <v>-803.161000</v>
+        <v>-803.16099999999994</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>33472.414518</v>
+        <v>33472.414517999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.297893</v>
+        <v>9.2978930000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1573.820000</v>
+        <v>1573.82</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1040.690000</v>
+        <v>-1040.69</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>33485.613563</v>
+        <v>33485.613562999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.301559</v>
+        <v>9.3015589999999992</v>
       </c>
       <c r="CE24" s="1">
-        <v>1986.140000</v>
+        <v>1986.14</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1595.600000</v>
+        <v>-1595.6</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>33311.903177</v>
       </c>
       <c r="B25" s="1">
-        <v>9.253306</v>
+        <v>9.2533060000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>900.631000</v>
+        <v>900.63099999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>-183.075000</v>
+        <v>-183.07499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>33322.345914</v>
+        <v>33322.345913999998</v>
       </c>
       <c r="G25" s="1">
-        <v>9.256207</v>
+        <v>9.2562069999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>917.911000</v>
+        <v>917.91099999999994</v>
       </c>
       <c r="I25" s="1">
-        <v>-158.202000</v>
+        <v>-158.202</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>33333.194445</v>
+        <v>33333.194445000001</v>
       </c>
       <c r="L25" s="1">
-        <v>9.259221</v>
+        <v>9.2592210000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>942.009000</v>
+        <v>942.00900000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.844000</v>
+        <v>-116.84399999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>33343.770148</v>
+        <v>33343.770148000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.262158</v>
+        <v>9.2621579999999994</v>
       </c>
       <c r="R25" s="1">
-        <v>949.696000</v>
+        <v>949.69600000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.856000</v>
+        <v>-102.85599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>33354.164274</v>
+        <v>33354.164274000002</v>
       </c>
       <c r="V25" s="1">
-        <v>9.265046</v>
+        <v>9.2650459999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>957.376000</v>
+        <v>957.37599999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.885700</v>
+        <v>-89.8857</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>33364.645759</v>
+        <v>33364.645758999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.267957</v>
+        <v>9.2679569999999991</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.636000</v>
+        <v>965.63599999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.748100</v>
+        <v>-80.748099999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>33375.082053</v>
+        <v>33375.082052999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.270856</v>
+        <v>9.2708560000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>970.821000</v>
+        <v>970.82100000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.268100</v>
+        <v>-80.268100000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>33385.918152</v>
+        <v>33385.918151999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.273866</v>
+        <v>9.2738659999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.067000</v>
+        <v>979.06700000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.906200</v>
+        <v>-87.906199999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>33396.980457</v>
+        <v>33396.980456999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.276939</v>
+        <v>9.2769390000000005</v>
       </c>
       <c r="AQ25" s="1">
-        <v>988.393000</v>
+        <v>988.39300000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.779000</v>
+        <v>-102.779</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>33408.116633</v>
+        <v>33408.116632999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.280032</v>
+        <v>9.2800320000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>999.795000</v>
+        <v>999.79499999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.232000</v>
+        <v>-124.232</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>33419.069260</v>
+        <v>33419.069259999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.283075</v>
+        <v>9.2830750000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1009.400000</v>
+        <v>1009.4</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.961000</v>
+        <v>-142.96100000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>33429.394017</v>
+        <v>33429.394016999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.285943</v>
+        <v>9.2859429999999996</v>
       </c>
       <c r="BF25" s="1">
-        <v>1054.520000</v>
+        <v>1054.52</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.796000</v>
+        <v>-227.79599999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>33440.140338</v>
+        <v>33440.140337999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.288928</v>
+        <v>9.2889280000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1133.410000</v>
+        <v>1133.4100000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-364.355000</v>
+        <v>-364.35500000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>33451.195137</v>
+        <v>33451.195137000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.291999</v>
+        <v>9.2919990000000006</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.230000</v>
+        <v>1264.23</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.258000</v>
+        <v>-576.25800000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>33461.887423</v>
@@ -6602,302 +7018,303 @@
         <v>9.294969</v>
       </c>
       <c r="BU25" s="1">
-        <v>1411.980000</v>
+        <v>1411.98</v>
       </c>
       <c r="BV25" s="1">
-        <v>-803.341000</v>
+        <v>-803.34100000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>33472.834634</v>
+        <v>33472.834633999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.298010</v>
+        <v>9.2980099999999997</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1573.750000</v>
+        <v>1573.75</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1040.660000</v>
+        <v>-1040.6600000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>33486.130355</v>
+        <v>33486.130355000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.301703</v>
+        <v>9.3017029999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>1984.990000</v>
+        <v>1984.99</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1594.930000</v>
+        <v>-1594.93</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>33312.582665</v>
+        <v>33312.582665000002</v>
       </c>
       <c r="B26" s="1">
-        <v>9.253495</v>
+        <v>9.2534949999999991</v>
       </c>
       <c r="C26" s="1">
-        <v>900.614000</v>
+        <v>900.61400000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-182.927000</v>
+        <v>-182.92699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>33323.036377</v>
+        <v>33323.036376999997</v>
       </c>
       <c r="G26" s="1">
         <v>9.256399</v>
       </c>
       <c r="H26" s="1">
-        <v>917.475000</v>
+        <v>917.47500000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-158.079000</v>
+        <v>-158.07900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>33333.540652</v>
+        <v>33333.540652000003</v>
       </c>
       <c r="L26" s="1">
-        <v>9.259317</v>
+        <v>9.2593169999999994</v>
       </c>
       <c r="M26" s="1">
-        <v>941.827000</v>
+        <v>941.827</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.060000</v>
+        <v>-117.06</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>33344.118333</v>
+        <v>33344.118332999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.262255</v>
+        <v>9.2622549999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>949.713000</v>
+        <v>949.71299999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.857000</v>
+        <v>-102.857</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>33354.508001</v>
+        <v>33354.508001000002</v>
       </c>
       <c r="V26" s="1">
-        <v>9.265141</v>
+        <v>9.2651409999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>957.358000</v>
+        <v>957.35799999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.879100</v>
+        <v>-89.879099999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>33365.304451</v>
+        <v>33365.304451000004</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.268140</v>
+        <v>9.2681400000000007</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.484000</v>
+        <v>965.48400000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.676900</v>
+        <v>-80.676900000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>33375.741236</v>
+        <v>33375.741236000002</v>
       </c>
       <c r="AF26" s="1">
         <v>9.271039</v>
       </c>
       <c r="AG26" s="1">
-        <v>970.894000</v>
+        <v>970.89400000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.255600</v>
+        <v>-80.255600000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>33386.305031</v>
+        <v>33386.305031000004</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.273974</v>
+        <v>9.2739740000000008</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.056000</v>
+        <v>979.05600000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.899200</v>
+        <v>-87.899199999999993</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>33397.339529</v>
+        <v>33397.339528999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.277039</v>
+        <v>9.2770390000000003</v>
       </c>
       <c r="AQ26" s="1">
-        <v>988.375000</v>
+        <v>988.375</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.770000</v>
+        <v>-102.77</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>33408.485129</v>
+        <v>33408.485129000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.280135</v>
+        <v>9.2801349999999996</v>
       </c>
       <c r="AV26" s="1">
-        <v>999.790000</v>
+        <v>999.79</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.220000</v>
+        <v>-124.22</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>33419.451180</v>
+        <v>33419.451179999996</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.283181</v>
+        <v>9.2831810000000008</v>
       </c>
       <c r="BA26" s="1">
-        <v>1009.420000</v>
+        <v>1009.42</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.965000</v>
+        <v>-142.965</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>33429.817596</v>
+        <v>33429.817596000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.286060</v>
+        <v>9.2860600000000009</v>
       </c>
       <c r="BF26" s="1">
-        <v>1054.520000</v>
+        <v>1054.52</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.788000</v>
+        <v>-227.78800000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>33440.554958</v>
+        <v>33440.554958000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.289043</v>
+        <v>9.2890429999999995</v>
       </c>
       <c r="BK26" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL26" s="1">
-        <v>-364.347000</v>
+        <v>-364.34699999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>33451.602157</v>
+        <v>33451.602157000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.292112</v>
+        <v>9.2921119999999995</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.230000</v>
+        <v>1264.23</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.278000</v>
+        <v>-576.27800000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>33462.304531</v>
+        <v>33462.304531000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.295085</v>
+        <v>9.2950850000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>1411.970000</v>
+        <v>1411.97</v>
       </c>
       <c r="BV26" s="1">
-        <v>-803.372000</v>
+        <v>-803.37199999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>33473.256692</v>
+        <v>33473.256692000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.298127</v>
+        <v>9.2981269999999991</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1573.940000</v>
+        <v>1573.94</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1040.710000</v>
+        <v>-1040.71</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>33486.647683</v>
+        <v>33486.647683000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.301847</v>
+        <v>9.3018470000000004</v>
       </c>
       <c r="CE26" s="1">
-        <v>1984.510000</v>
+        <v>1984.51</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1596.220000</v>
+        <v>-1596.22</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>